--- a/soilmodel_hamaguchi_siltloam.xlsx
+++ b/soilmodel_hamaguchi_siltloam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12402\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442A39AE-B662-4CBB-B569-F0876B56C6FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C0E53C-52C5-4D0C-8B4D-88D358DC803D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="-375" windowWidth="6570" windowHeight="7815" tabRatio="546" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="-375" windowWidth="6570" windowHeight="7815" tabRatio="546" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kumano" sheetId="14" r:id="rId1"/>
@@ -3539,10 +3539,6 @@
     <phoneticPr fontId="22"/>
   </si>
   <si>
-    <t>RAIN</t>
-    <phoneticPr fontId="22"/>
-  </si>
-  <si>
     <t>残差</t>
     <rPh sb="0" eb="2">
       <t>ザンサ</t>
@@ -3558,6 +3554,13 @@
   </si>
   <si>
     <t>RSME</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>降水量</t>
+    <rPh sb="0" eb="3">
+      <t>コウスイリョウ</t>
+    </rPh>
     <phoneticPr fontId="22"/>
   </si>
 </sst>
@@ -3575,7 +3578,7 @@
     <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="Arial"/>
@@ -3728,6 +3731,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3792,7 +3802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3921,6 +3931,7 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4316,91 +4327,91 @@
                   <c:v>0.23830000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23403204351248397</c:v>
+                  <c:v>0.24078583643171281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26117937569439165</c:v>
+                  <c:v>0.27621485618741992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24170764666603825</c:v>
+                  <c:v>0.258076797547797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23646748388171643</c:v>
+                  <c:v>0.2509876665308115</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23484406991797507</c:v>
+                  <c:v>0.24893600852898159</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31898598666159678</c:v>
+                  <c:v>0.34396454172591884</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28438963987343863</c:v>
+                  <c:v>0.29816574117589673</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25535613191185053</c:v>
+                  <c:v>0.26236700285317971</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25023920038381497</c:v>
+                  <c:v>0.25908115129995479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24634432234695039</c:v>
+                  <c:v>0.25656998121014352</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.32722317683116026</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.30168549324023275</c:v>
+                  <c:v>0.30327471380125409</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.28622835526344786</c:v>
+                  <c:v>0.28677899588266198</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.32993825029497692</c:v>
+                  <c:v>0.30523718125692206</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.32593741094575851</c:v>
+                  <c:v>0.37915763130499386</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.31397611601011699</c:v>
+                  <c:v>0.29010817994647886</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.27784398833179541</c:v>
+                  <c:v>0.28005522332439858</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.30804135716248526</c:v>
+                  <c:v>0.31264678845507815</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.27922628559070323</c:v>
+                  <c:v>0.27767695657376662</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2724663018261414</c:v>
+                  <c:v>0.27261442890373344</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.26874589221829398</c:v>
+                  <c:v>0.26957332009457713</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.26573582157673259</c:v>
+                  <c:v>0.26846744369878317</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.26675222894034384</c:v>
+                  <c:v>0.27252388217895712</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.31353318966881999</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.31282890184375955</c:v>
+                  <c:v>0.34400597796727128</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.30811774779315582</c:v>
+                  <c:v>0.3167944230916182</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.31383399137328399</c:v>
+                  <c:v>0.32573153855763382</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.31741725320858494</c:v>
+                  <c:v>0.33221782505633179</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.31016985970481259</c:v>
+                  <c:v>0.30799645466620978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4989,91 +5000,91 @@
                   <c:v>238.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>237.901642380829</c:v>
+                  <c:v>238.12538940574944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>237.99541711245371</c:v>
+                  <c:v>238.39431914226688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>237.23769903659797</c:v>
+                  <c:v>237.79135452280752</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>236.45498597537718</c:v>
+                  <c:v>237.13785055064756</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>235.73743233884693</c:v>
+                  <c:v>236.55720018283904</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>251.75552796296353</c:v>
+                  <c:v>252.96809136846059</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256.66608096726185</c:v>
+                  <c:v>258.39032233189732</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>254.75906616223756</c:v>
+                  <c:v>257.07579527345985</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>253.015147188805</c:v>
+                  <c:v>255.9655335890817</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>251.31710601385407</c:v>
+                  <c:v>254.90148320486145</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>312.78203166487128</c:v>
+                  <c:v>333.44627661457298</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>304.09391975244148</c:v>
+                  <c:v>319.29606542814724</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>298.91734365857911</c:v>
+                  <c:v>303.83575121081662</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>305.74139374840081</c:v>
+                  <c:v>306.32572909508878</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>329.25115809508463</c:v>
+                  <c:v>351.01323295826757</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>304.55624826294803</c:v>
+                  <c:v>318.57049805157692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>296.47489654402864</c:v>
+                  <c:v>300.5679374158974</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>297.7006697148413</c:v>
+                  <c:v>297.72534754096614</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>292.59242447868837</c:v>
+                  <c:v>292.0654492364223</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>287.82006262439029</c:v>
+                  <c:v>288.37829907209795</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>283.50256915467963</c:v>
+                  <c:v>285.07189191670608</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>279.71213630501859</c:v>
+                  <c:v>282.21900746732069</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>277.240520357901</c:v>
+                  <c:v>280.61943880994534</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>306.6288064125016</c:v>
+                  <c:v>315.91336205864457</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>319.00533945835741</c:v>
+                  <c:v>333.44247504020075</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>316.26783447760749</c:v>
+                  <c:v>323.9181827225288</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>317.92680314477229</c:v>
+                  <c:v>324.77240025436492</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>319.76958735550772</c:v>
+                  <c:v>329.5469763334836</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>306.14226379232321</c:v>
+                  <c:v>310.76783668987105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5644,91 +5655,91 @@
                   <c:v>0.23830000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23762863050555053</c:v>
+                  <c:v>0.23781466428084061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2366852678970133</c:v>
+                  <c:v>0.23686899270833997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23593178056661521</c:v>
+                  <c:v>0.23636177066849448</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23453209199489169</c:v>
+                  <c:v>0.23527183945624364</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23314775257838416</c:v>
+                  <c:v>0.23413107485796802</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26356650771759171</c:v>
+                  <c:v>0.26536344460824463</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27215571704369573</c:v>
+                  <c:v>0.27672507094422755</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26571178176910237</c:v>
+                  <c:v>0.27264604343106591</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26000090401277481</c:v>
+                  <c:v>0.26850163398596649</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25529175956351885</c:v>
+                  <c:v>0.26501843105155626</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.33468623828328309</c:v>
+                  <c:v>0.30358180911404981</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.31007082770363631</c:v>
+                  <c:v>0.34576304253376539</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.29890461389219264</c:v>
+                  <c:v>0.30501506388761285</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.31130250287053712</c:v>
+                  <c:v>0.30893339051747687</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.33499798047649754</c:v>
+                  <c:v>0.3722494663392969</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2902844830575993</c:v>
+                  <c:v>0.30565167786797348</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.28358061435742549</c:v>
+                  <c:v>0.28428575175428877</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28951080397108608</c:v>
+                  <c:v>0.28804510099156999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28402936198493195</c:v>
+                  <c:v>0.28327059772910473</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.28128219564703227</c:v>
+                  <c:v>0.28112310717262479</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.27954917864207357</c:v>
+                  <c:v>0.27990437724364442</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.27610823720821565</c:v>
+                  <c:v>0.27834551751823061</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.27360456694648821</c:v>
+                  <c:v>0.27758227049444578</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.32357678533763617</c:v>
+                  <c:v>0.32134529864851297</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.32963462264851917</c:v>
+                  <c:v>0.3519655961741337</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.31847130438681515</c:v>
+                  <c:v>0.32336674348545613</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.31932816434310868</c:v>
+                  <c:v>0.3250016095140229</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.32076580111405234</c:v>
+                  <c:v>0.33212939098261335</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.29584041154573426</c:v>
+                  <c:v>0.29831688409493012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6316,91 +6327,91 @@
                   <c:v>0.23830000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23829198361158857</c:v>
+                  <c:v>0.23829793674601638</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23826270454988407</c:v>
+                  <c:v>0.23828901033208097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23822101354352732</c:v>
+                  <c:v>0.23827577704681566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23815552688479358</c:v>
+                  <c:v>0.23825586744261396</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23806266298928982</c:v>
+                  <c:v>0.23822727995691173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23872156669161421</c:v>
+                  <c:v>0.2385031077195186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24189741986479432</c:v>
+                  <c:v>0.24064129783468216</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24504716136579507</c:v>
+                  <c:v>0.24309860622712676</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24694220641394665</c:v>
+                  <c:v>0.24475607486449624</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24799232724556999</c:v>
+                  <c:v>0.24588770249412059</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.29284980484218825</c:v>
+                  <c:v>0.25135014870364614</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.29889928681531563</c:v>
+                  <c:v>0.29649917612805787</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.29941664262096446</c:v>
+                  <c:v>0.30344854212473366</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29989130273471964</c:v>
+                  <c:v>0.30406081890752107</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.32429488241727034</c:v>
+                  <c:v>0.33114485733863669</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.31681896872355775</c:v>
+                  <c:v>0.33109338967957597</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.30859795033264803</c:v>
+                  <c:v>0.31576035988930107</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.30454783220171533</c:v>
+                  <c:v>0.30571474099181223</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.30068152356501077</c:v>
+                  <c:v>0.3003989137491514</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.29419408959660115</c:v>
+                  <c:v>0.29540265614349204</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.28756736372107672</c:v>
+                  <c:v>0.29023925381295784</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.28343775145712441</c:v>
+                  <c:v>0.28617446256722862</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2808603365071336</c:v>
+                  <c:v>0.28361753219023295</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.29137081031502415</c:v>
+                  <c:v>0.28769639785883389</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.30984006731377584</c:v>
+                  <c:v>0.3166503485399112</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.31463207596886433</c:v>
+                  <c:v>0.32467998511035889</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.31684455330668587</c:v>
+                  <c:v>0.32453274828223416</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.31897879572859983</c:v>
+                  <c:v>0.32715980765452862</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.31510053324459458</c:v>
+                  <c:v>0.32188873252476718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6647,7 +6658,15 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>降水量[mm/day]</c:v>
+            <c:strRef>
+              <c:f>Output!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>降水量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -6661,10 +6680,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Output!$B$8:$B$36</c:f>
+              <c:f>Output!$B$8:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6751,6 +6770,24 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6781,7 +6818,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Output!$F$7</c:f>
+              <c:f>Output!$G$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6812,106 +6849,106 @@
                   <c:v>238.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>237.901642380829</c:v>
+                  <c:v>238.12538940574944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>237.99541711245371</c:v>
+                  <c:v>238.39431914226688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>237.23769903659797</c:v>
+                  <c:v>237.79135452280752</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>236.45498597537718</c:v>
+                  <c:v>237.13785055064756</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>235.73743233884693</c:v>
+                  <c:v>236.55720018283904</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>251.75552796296353</c:v>
+                  <c:v>252.96809136846059</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256.66608096726185</c:v>
+                  <c:v>258.39032233189732</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>254.75906616223756</c:v>
+                  <c:v>257.07579527345985</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>253.015147188805</c:v>
+                  <c:v>255.9655335890817</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>251.31710601385407</c:v>
+                  <c:v>254.90148320486145</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>312.78203166487128</c:v>
+                  <c:v>333.44627661457298</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>304.09391975244148</c:v>
+                  <c:v>319.29606542814724</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>298.91734365857911</c:v>
+                  <c:v>303.83575121081662</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>305.74139374840081</c:v>
+                  <c:v>306.32572909508878</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>329.25115809508463</c:v>
+                  <c:v>351.01323295826757</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>304.55624826294803</c:v>
+                  <c:v>318.57049805157692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>296.47489654402864</c:v>
+                  <c:v>300.5679374158974</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>297.7006697148413</c:v>
+                  <c:v>297.72534754096614</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>292.59242447868837</c:v>
+                  <c:v>292.0654492364223</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>287.82006262439029</c:v>
+                  <c:v>288.37829907209795</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>283.50256915467963</c:v>
+                  <c:v>285.07189191670608</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>279.71213630501859</c:v>
+                  <c:v>282.21900746732069</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>277.240520357901</c:v>
+                  <c:v>280.61943880994534</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>306.6288064125016</c:v>
+                  <c:v>315.91336205864457</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>319.00533945835741</c:v>
+                  <c:v>333.44247504020075</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>316.26783447760749</c:v>
+                  <c:v>323.9181827225288</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>317.92680314477229</c:v>
+                  <c:v>324.77240025436492</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>319.76958735550772</c:v>
+                  <c:v>329.5469763334836</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>459.21339568848481</c:v>
+                  <c:v>310.76783668987105</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>558.26866363841884</c:v>
+                  <c:v>527.53501040668789</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>369.72096084539254</c:v>
+                  <c:v>466.9930752691721</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>310.74585673322423</c:v>
+                  <c:v>402.41222599931893</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>328.35109580396829</c:v>
+                  <c:v>362.86813873539575</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>357.75745981830016</c:v>
+                  <c:v>348.1900832538135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7331,7 +7368,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" sz="1050"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1050"/>
                   <a:t>降水量</a:t>
                 </a:r>
                 <a:r>
@@ -7341,6 +7378,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.93995024318642639"/>
+              <c:y val="0.21935656777080081"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7436,9 +7481,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12791278702607078"/>
-          <c:y val="1.5797191981480305E-2"/>
-          <c:w val="0.30778592844407415"/>
+          <c:x val="0.13739149904840095"/>
+          <c:y val="3.8300718739271516E-2"/>
+          <c:w val="0.27038300307248325"/>
           <c:h val="0.30682047569576509"/>
         </c:manualLayout>
       </c:layout>
@@ -7508,916 +7553,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14342946909000243"/>
-          <c:y val="0.17685185185185184"/>
-          <c:w val="0.72217919462397318"/>
-          <c:h val="0.54675410053238616"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>降水量[mm/h]</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Output!$B$8:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F39E-49E0-A242-08F94234CB5B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="575082744"/>
-        <c:axId val="575085040"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Output!$F$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>推定値[mm]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Output!$F$8:$F$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>238.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>237.901642380829</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>237.99541711245371</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>237.23769903659797</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>236.45498597537718</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>235.73743233884693</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>251.75552796296353</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>256.66608096726185</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>254.75906616223756</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>253.015147188805</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>251.31710601385407</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>312.78203166487128</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>304.09391975244148</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>298.91734365857911</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>305.74139374840081</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>329.25115809508463</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>304.55624826294803</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>296.47489654402864</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>297.7006697148413</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>292.59242447868837</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>287.82006262439029</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>283.50256915467963</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>279.71213630501859</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>277.240520357901</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>306.6288064125016</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>319.00533945835741</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>316.26783447760749</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>317.92680314477229</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>319.76958735550772</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>306.14226379232321</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F39E-49E0-A242-08F94234CB5B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Output!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>実測値[mm]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Output!$I$8:$I$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>238.331754874653</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>238.39117647058669</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>239.29065573770333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>234.82235772357964</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>230.50303030303041</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>226.54267015706745</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>273.13671444322262</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>281.96189710610946</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>267.99947575360278</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>251.04677419354772</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>278.9791618160657</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>320.2956183057446</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>300.46079335793411</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>287.85596153846478</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>316.42643442622875</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>322.28456104944507</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>304.33051330798696</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>297.58445544554792</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>283.4689655172445</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>263.94255924170523</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>249.90241312741233</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>251.02738669238261</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>250.657142857145</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>297.65193717277481</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>334.04543630892624</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>327.96229838709723</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>316.39990029910285</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>331.25084409136065</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>312.53610567514585</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>493.94859359844446</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F39E-49E0-A242-08F94234CB5B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="552629688"/>
-        <c:axId val="552631328"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="552629688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>日数</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="552631328"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="552631328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP"/>
-                  <a:t>土壌水分量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>[mm]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="552629688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="575085040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" sz="1050"/>
-                  <a:t>降水量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1050"/>
-                  <a:t>[mm/day]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="575082744"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="575082744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="575085040"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18045059034167671"/>
-          <c:y val="0.89809456756809825"/>
-          <c:w val="0.65574751420731225"/>
-          <c:h val="8.5878498077978038E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8973,534 +8109,18 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>422550</xdr:colOff>
+      <xdr:colOff>308250</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>43500</xdr:rowOff>
     </xdr:to>
@@ -9530,13 +8150,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>306345</xdr:colOff>
+      <xdr:colOff>192045</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>138750</xdr:rowOff>
     </xdr:to>
@@ -9568,13 +8188,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>306345</xdr:colOff>
+      <xdr:colOff>192045</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>53025</xdr:rowOff>
     </xdr:to>
@@ -9606,13 +8226,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>432075</xdr:colOff>
+      <xdr:colOff>317775</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>138750</xdr:rowOff>
     </xdr:to>
@@ -9644,15 +8264,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9672,44 +8292,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="グラフ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC5CC8A-A39E-42FC-962C-2D36CFD1A32B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12108,7 +10690,7 @@
       </c>
       <c r="G3" s="16">
         <f ca="1">ET!K2</f>
-        <v>20.669631634814394</v>
+        <v>20.841853155179276</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>132</v>
@@ -12170,7 +10752,7 @@
       </c>
       <c r="D6" s="16">
         <f ca="1">B6*C6^((Tf-25)/10)</f>
-        <v>217.56469922597188</v>
+        <v>220.36252515222714</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>145</v>
@@ -12195,7 +10777,7 @@
       </c>
       <c r="D7" s="16">
         <f ca="1">B7*C7^((Tf-25)/10)</f>
-        <v>277225.29763827013</v>
+        <v>278097.14470737346</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>124</v>
@@ -12224,7 +10806,7 @@
       </c>
       <c r="D8" s="16">
         <f ca="1">B8*C8^((Tf-25)/10)</f>
-        <v>3316.5651138432263</v>
+        <v>3284.6127005858357</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>127</v>
@@ -12246,7 +10828,7 @@
       </c>
       <c r="D9" s="16">
         <f ca="1">(B9*C9^((Tf-25)/10))/(1+EXP(0.29*(Tf-40)))</f>
-        <v>136.39259329775211</v>
+        <v>138.43865803974597</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>125</v>
@@ -12350,7 +10932,7 @@
       </c>
       <c r="J14" s="16">
         <f ca="1">Oa/(2*tau)</f>
-        <v>31.659260830349353</v>
+        <v>31.967239236842886</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12365,7 +10947,7 @@
       </c>
       <c r="J15" s="16">
         <f ca="1">Vcmax*(Ci-co2pt)/(Kc*(1+Oa/Ko)+Ci)</f>
-        <v>49.830374959150923</v>
+        <v>50.174601340257361</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12377,7 +10959,7 @@
       </c>
       <c r="J16" s="16">
         <f ca="1">0.5*Vcmax</f>
-        <v>68.196296648876057</v>
+        <v>69.219329019872987</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12397,7 +10979,7 @@
       </c>
       <c r="J17" s="16">
         <f ca="1">em*alpha*Qsl*((Ci-co2pt)/(Ci+2*co2pt))</f>
-        <v>29.190214792722127</v>
+        <v>29.098722811256216</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12419,7 +11001,7 @@
       </c>
       <c r="J18" s="16">
         <f ca="1">em*alpha*Qsh*((Ci-co2pt)/(Ci+2*co2pt))</f>
-        <v>7.4541166750172554</v>
+        <v>7.4307529584595597</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12434,7 +11016,7 @@
       </c>
       <c r="J19" s="16">
         <f ca="1">Lsl*MIN(vc,vs,vqsl)+Lsh*MIN(vc,vs,vqsh)</f>
-        <v>47.244910571722755</v>
+        <v>47.096829082323637</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -12451,7 +11033,7 @@
         <v>148</v>
       </c>
       <c r="J20" s="16">
-        <v>331.33383660150815</v>
+        <v>331.03935856311773</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
@@ -12473,7 +11055,7 @@
       </c>
       <c r="J21" s="16">
         <f>J20*3600*30*10^-6</f>
-        <v>35.784054352962883</v>
+        <v>35.752250724816719</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12611,7 +11193,7 @@
       </c>
       <c r="K2" s="16">
         <f ca="1">((Hc*rca+(Hs+Hc)*raa)/pcp)+Ta</f>
-        <v>20.669631634814394</v>
+        <v>20.841853155179276</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12654,7 +11236,7 @@
       </c>
       <c r="H4" s="16">
         <f ca="1">(slopesvp+psycho)*rsa+psycho*rss</f>
-        <v>36.681958750266645</v>
+        <v>70.431610545879821</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12676,7 +11258,7 @@
       </c>
       <c r="H5" s="16">
         <f ca="1">(1+(H3*H2)/(H4*(H3+H2)))^-1</f>
-        <v>0.72782690592469279</v>
+        <v>0.83698748524798694</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12691,14 +11273,14 @@
       </c>
       <c r="E6" s="36">
         <f>Water!H9</f>
-        <v>0.39</v>
+        <v>0.28534124263772659</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>205</v>
       </c>
       <c r="H6" s="16">
         <f ca="1">(1+(H4*H2)/(H3*(H4+H2)))^-1</f>
-        <v>0.93056535530196116</v>
+        <v>0.92015144235281654</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12788,7 +11370,7 @@
       </c>
       <c r="H11" s="16">
         <f ca="1">slopesvp+psycho*(1+rss/(raa+rsa))</f>
-        <v>2.189081272845284</v>
+        <v>3.6140866452165632</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12810,7 +11392,7 @@
       </c>
       <c r="H12" s="16">
         <f ca="1">H10/H11</f>
-        <v>110.10920331910728</v>
+        <v>66.69402773527807</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -12832,7 +11414,7 @@
       </c>
       <c r="H13" s="16">
         <f ca="1">H5*H9+H6*H12</f>
-        <v>148.77269656973482</v>
+        <v>114.62296928655999</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12847,7 +11429,7 @@
       </c>
       <c r="H15" s="16">
         <f ca="1">vpd+(raa/pcp)*(slopesvp*A-(slopesvp+psycho)*LET)</f>
-        <v>1.1218696517312226</v>
+        <v>1.5459543046609654</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12884,7 +11466,7 @@
       </c>
       <c r="H17" s="16">
         <f ca="1">slopesvp*As+pcp*vpd0/rsa</f>
-        <v>228.04522812596446</v>
+        <v>262.24779608752692</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
@@ -12906,7 +11488,7 @@
       </c>
       <c r="H18" s="16">
         <f ca="1">slopesvp+psycho*(rss+rsa)/rsa</f>
-        <v>2.4227633864390885</v>
+        <v>4.6518542927387809</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -12929,7 +11511,7 @@
       </c>
       <c r="H19" s="16">
         <f ca="1">H17/H18</f>
-        <v>94.126083216545183</v>
+        <v>56.374894737540984</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -12944,7 +11526,7 @@
         <v>214</v>
       </c>
       <c r="H20" s="16">
-        <v>259.48071167619662</v>
+        <v>210.72309028590382</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -12953,7 +11535,7 @@
       </c>
       <c r="H21" s="16">
         <f>H20*2*3600/2454000</f>
-        <v>0.76131260149495339</v>
+        <v>0.61825845560656378</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -12974,7 +11556,7 @@
       </c>
       <c r="H23" s="16">
         <f ca="1">slopesvp*Ac+pcp*vpd0/rca</f>
-        <v>347.4150045126853</v>
+        <v>370.3112387132316</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -13006,7 +11588,7 @@
       </c>
       <c r="H25" s="16">
         <f ca="1">H23/H24</f>
-        <v>54.646613353189636</v>
+        <v>58.24807454901903</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -13021,7 +11603,7 @@
         <v>215</v>
       </c>
       <c r="H26" s="16">
-        <v>207.5276193799379</v>
+        <v>212.87227476013365</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -13030,7 +11612,7 @@
       </c>
       <c r="H27" s="16">
         <f>H26*2*3600/2454000</f>
-        <v>0.60888299084578357</v>
+        <v>0.62456413132557553</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -13055,7 +11637,7 @@
       </c>
       <c r="H29" s="16">
         <f>PETs+PETc</f>
-        <v>1.370195592340737</v>
+        <v>1.2428225869321392</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -13085,7 +11667,7 @@
       </c>
       <c r="H32" s="16">
         <f ca="1">psycho*As*(rss+rsa)-pcp*vpd0</f>
-        <v>1065.1098019665383</v>
+        <v>4703.953148743014</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.2">
@@ -13101,7 +11683,7 @@
       </c>
       <c r="H33" s="16">
         <f ca="1">slopesvp*rsa+psycho*(rss+rsa)</f>
-        <v>36.681958750266645</v>
+        <v>70.431610545879806</v>
       </c>
     </row>
     <row r="34" spans="4:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -13117,7 +11699,7 @@
       </c>
       <c r="H34" s="16">
         <f ca="1">H32/H33</f>
-        <v>29.036339341033578</v>
+        <v>66.787527820037781</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.2">
@@ -13136,7 +11718,7 @@
       </c>
       <c r="H36" s="16">
         <f ca="1">psycho*Ac*(rcs+rca)-pcp*vpd0</f>
-        <v>29068.849754995306</v>
+        <v>28551.004226149325</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.2">
@@ -13168,7 +11750,7 @@
       </c>
       <c r="H38" s="16">
         <f ca="1">H36/H37</f>
-        <v>202.16517970776576</v>
+        <v>198.56371851193637</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.2">
@@ -13196,7 +11778,7 @@
       </c>
       <c r="E42" s="16">
         <f>E41*EXP(-(1/B13)*E6/E5)</f>
-        <v>14.906189086072134</v>
+        <v>66.197453213143817</v>
       </c>
     </row>
   </sheetData>
@@ -13333,7 +11915,7 @@
       </c>
       <c r="E5" s="16">
         <f>1/(1+(3.6073*H9/H3)^-9.3172)</f>
-        <v>0.99999356396147077</v>
+        <v>0.9998817190928877</v>
       </c>
       <c r="G5" s="44" t="s">
         <v>232</v>
@@ -13357,7 +11939,7 @@
       </c>
       <c r="E6" s="16">
         <f>(PETs*E5)*0.75</f>
-        <v>0.57098077624328802</v>
+        <v>0.46363899557670363</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>231</v>
@@ -13400,13 +11982,13 @@
         <v>270</v>
       </c>
       <c r="H8" s="16">
-        <v>12609.731357114721</v>
+        <v>5.706824852754532</v>
       </c>
       <c r="I8" s="16">
-        <v>-12369.754763666893</v>
+        <v>133.71438974284939</v>
       </c>
       <c r="J8" s="16">
-        <v>102.86240290107077</v>
+        <v>173.49731044525021</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -13422,15 +12004,15 @@
       </c>
       <c r="H9" s="16">
         <f>MAX(0.01,MIN(H3,(H8/1000)/H4))</f>
-        <v>0.39</v>
+        <v>0.28534124263772659</v>
       </c>
       <c r="I9" s="16">
         <f>MAX(0.01,MIN(I3,(I8/1000)/I4))</f>
-        <v>0.01</v>
+        <v>0.29068345596271605</v>
       </c>
       <c r="J9" s="16">
         <f>MAX(0.01,MIN(J3,(J8/1000)/J4))</f>
-        <v>0.19781231327128992</v>
+        <v>0.33364867393317349</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13446,15 +12028,15 @@
       </c>
       <c r="H10" s="16">
         <f>[1]!interpolate(hydraulic_vwc,hydraulic_K,H9)</f>
-        <v>762.84210526315826</v>
+        <v>2.57147749347559</v>
       </c>
       <c r="I10" s="16">
         <f>[1]!interpolate(hydraulic_vwc,hydraulic_K,I9)</f>
-        <v>4.75E-28</v>
+        <v>2.9390217702348651</v>
       </c>
       <c r="J10" s="16">
         <f>[1]!interpolate(hydraulic_vwc,hydraulic_K,J9)</f>
-        <v>2.6858013508528813E-2</v>
+        <v>39.476405351909499</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13470,15 +12052,15 @@
       </c>
       <c r="H11" s="16">
         <f>[1]!interpolate(matric_vwc,matric_Hm,H9)</f>
-        <v>0</v>
+        <v>0.73293786811367068</v>
       </c>
       <c r="I11" s="16">
         <f>[1]!interpolate(matric_vwc,matric_Hm,I9)</f>
-        <v>1250</v>
+        <v>0.49658272018641963</v>
       </c>
       <c r="J11" s="16">
         <f>[1]!interpolate(matric_vwc,matric_Hm,J9)</f>
-        <v>3.2187686728710085</v>
+        <v>0.28175663033413251</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13487,7 +12069,7 @@
       </c>
       <c r="E12" s="16">
         <f>SUM(H16:J16)/droot</f>
-        <v>4.0400000000000005E-2</v>
+        <v>0.2902560788967169</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>238</v>
@@ -13511,22 +12093,22 @@
       </c>
       <c r="E13" s="16">
         <f>IF(E12&gt;=E11,1,MAX(0,(E12-E9)/(E11-E9)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>239</v>
       </c>
       <c r="H13" s="16">
         <f>H11+H12</f>
-        <v>0.01</v>
+        <v>0.74293786811367069</v>
       </c>
       <c r="I13" s="16">
         <f>I11+I12</f>
-        <v>1250.25</v>
+        <v>0.74658272018641969</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" ref="J13" si="0">J11+J12</f>
-        <v>3.9587686728710088</v>
+        <v>1.0217566303341326</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -13535,18 +12117,18 @@
       </c>
       <c r="E14" s="16">
         <f>PETc*E13</f>
-        <v>0</v>
+        <v>0.62456413132557553</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>267</v>
       </c>
       <c r="I14" s="16">
         <f>(H10*H4+I10*I4)/(I4+H4)</f>
-        <v>31.785087719298261</v>
+        <v>2.9237074253698956</v>
       </c>
       <c r="J14" s="16">
         <f>(I10*I4+J10*J4)/(J4+I4)</f>
-        <v>1.4251190841260187E-2</v>
+        <v>22.32620489520508</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13575,11 +12157,11 @@
       </c>
       <c r="H16" s="16">
         <f>MAX(0,H9*(H4-H15))</f>
-        <v>7.8000000000000005E-3</v>
+        <v>5.706824852754532E-3</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" ref="I16:J16" si="1">MAX(0,I9*(I4-I15))</f>
-        <v>2.3E-3</v>
+        <v>6.6857194871424691E-2</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="1"/>
@@ -13599,7 +12181,7 @@
       </c>
       <c r="H17" s="16">
         <f>E6</f>
-        <v>0.57098077624328802</v>
+        <v>0.46363899557670363</v>
       </c>
     </row>
     <row r="18" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13642,11 +12224,11 @@
       </c>
       <c r="H20" s="16">
         <f>H19*AETc</f>
-        <v>0</v>
+        <v>8.6739466558495931E-2</v>
       </c>
       <c r="I20" s="16">
         <f>(I19-H19)*AETc</f>
-        <v>0</v>
+        <v>0.53782466476707957</v>
       </c>
       <c r="J20" s="16">
         <f>(J19-I19)*AETc</f>
@@ -13659,15 +12241,15 @@
       </c>
       <c r="H21" s="16">
         <f ca="1">Pn-H17-H20</f>
-        <v>-0.57098077624328802</v>
+        <v>-0.55037846213519959</v>
       </c>
       <c r="I21" s="16">
         <f>I14*(I13-H13)/(I6-H6)-I20</f>
-        <v>165579.11695906441</v>
+        <v>-0.49342266031094989</v>
       </c>
       <c r="J21" s="16">
         <f>J14*(J13-I13)/(J6-I6)-J20</f>
-        <v>-36.247212615167477</v>
+        <v>12.537936938311407</v>
       </c>
     </row>
     <row r="22" spans="4:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -13676,15 +12258,15 @@
       </c>
       <c r="H22" s="29">
         <f ca="1">H21-I21</f>
-        <v>-165579.68793984066</v>
+        <v>-5.6955801824249697E-2</v>
       </c>
       <c r="I22" s="29">
         <f>I21-J21</f>
-        <v>165615.36417167957</v>
+        <v>-13.031359598622357</v>
       </c>
       <c r="J22" s="29">
         <f>J21-J14</f>
-        <v>-36.261463806008734</v>
+        <v>-9.788267956893673</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.2">
@@ -13805,7 +12387,7 @@
   <dimension ref="A2:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -13852,7 +12434,6 @@
         <v>0.01</v>
       </c>
       <c r="E4" s="48">
-        <f>4.75E-28</f>
         <v>4.75E-28</v>
       </c>
     </row>
@@ -13867,7 +12448,6 @@
         <v>0.05</v>
       </c>
       <c r="E5" s="48">
-        <f>0.000000000000039</f>
         <v>3.8999999999999998E-14</v>
       </c>
     </row>
@@ -13879,11 +12459,10 @@
         <v>50</v>
       </c>
       <c r="D6" s="16">
-        <v>0.11360000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="48">
-        <f>0.00000004494</f>
-        <v>4.4939999999999997E-8</v>
+        <v>9.8400000000000008E-9</v>
       </c>
       <c r="I6"/>
     </row>
@@ -13895,11 +12474,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="16">
-        <v>0.14630000000000001</v>
-      </c>
-      <c r="E7" s="48">
-        <f xml:space="preserve"> 0.0001607</f>
-        <v>1.607E-4</v>
+        <v>0.15</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1.42E-5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -13910,11 +12488,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="16">
-        <v>0.19989999999999999</v>
-      </c>
-      <c r="E8" s="48">
-        <f xml:space="preserve"> 0.02794</f>
-        <v>2.794E-2</v>
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2.48E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -13925,11 +12502,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="16">
-        <v>0.23680000000000001</v>
-      </c>
-      <c r="E9" s="48">
-        <f xml:space="preserve"> 0.2362</f>
-        <v>0.23619999999999999</v>
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -13940,11 +12516,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="16">
-        <v>0.31180000000000002</v>
-      </c>
-      <c r="E10" s="48">
-        <f>5.52</f>
-        <v>5.52</v>
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="16">
+        <v>3.58</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -13955,11 +12530,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="16">
-        <v>0.34920000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="E11" s="16">
-        <f xml:space="preserve"> 154.6</f>
-        <v>154.6</v>
+        <v>56.92</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -13970,10 +12544,10 @@
         <v>0.5</v>
       </c>
       <c r="D12" s="16">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="E12" s="75">
-        <v>1061</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -13982,12 +12556,6 @@
       </c>
       <c r="B13" s="16">
         <v>0</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0.42</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1500</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -14062,11 +12630,11 @@
       </c>
       <c r="I2">
         <f ca="1">assim</f>
-        <v>47.244910571722755</v>
+        <v>47.096829082323637</v>
       </c>
       <c r="J2">
         <f>Photosynthesis!J20</f>
-        <v>331.33383660150815</v>
+        <v>331.03935856311773</v>
       </c>
       <c r="K2">
         <f ca="1">tsr</f>
@@ -14094,11 +12662,11 @@
       </c>
       <c r="I3">
         <f ca="1">LETs</f>
-        <v>94.126083216545183</v>
+        <v>56.374894737540984</v>
       </c>
       <c r="J3">
         <f>ET!H20</f>
-        <v>259.48071167619662</v>
+        <v>210.72309028590382</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -14126,11 +12694,11 @@
       </c>
       <c r="I4">
         <f ca="1">LETc</f>
-        <v>54.646613353189636</v>
+        <v>58.24807454901903</v>
       </c>
       <c r="J4">
         <f>ET!H26</f>
-        <v>207.5276193799379</v>
+        <v>212.87227476013365</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -14151,11 +12719,11 @@
       </c>
       <c r="H5">
         <f>Water!H8:J8</f>
-        <v>12609.731357114721</v>
+        <v>5.706824852754532</v>
       </c>
       <c r="I5">
         <f>Water!H22:J22</f>
-        <v>165615.36417167957</v>
+        <v>-13.031359598622357</v>
       </c>
       <c r="J5">
         <v>100</v>
@@ -14198,7 +12766,7 @@
       </c>
       <c r="H21">
         <f>Water!H8:J8</f>
-        <v>12609.731357114721</v>
+        <v>5.706824852754532</v>
       </c>
       <c r="I21">
         <f>Water!H7:J7</f>
@@ -14216,8 +12784,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -14228,7 +12796,7 @@
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
     <col min="12" max="12" width="10.140625" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
   </cols>
@@ -14276,19 +12844,19 @@
       </c>
       <c r="C3">
         <f>Water!H9</f>
-        <v>0.39</v>
+        <v>0.28534124263772659</v>
       </c>
       <c r="D3">
         <f>Water!I9</f>
-        <v>0.01</v>
+        <v>0.29068345596271605</v>
       </c>
       <c r="E3">
         <f>Water!J9</f>
-        <v>0.19781231327128992</v>
+        <v>0.33364867393317349</v>
       </c>
       <c r="F3">
         <f>SUM(Water!H8:J8)</f>
-        <v>342.83899634889809</v>
+        <v>312.91852504085409</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -14309,14 +12877,14 @@
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>290</v>
+      <c r="B7" s="76" t="s">
+        <v>293</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="G7" s="58"/>
       <c r="H7" s="60" t="s">
         <v>289</v>
       </c>
@@ -14327,13 +12895,13 @@
         <v>286</v>
       </c>
       <c r="K7" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="L7" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="L7" s="58" t="s">
+      <c r="M7" s="58" t="s">
         <v>292</v>
-      </c>
-      <c r="M7" s="58" t="s">
-        <v>293</v>
       </c>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
@@ -14383,7 +12951,7 @@
       </c>
       <c r="M8">
         <f>SQRT(SUM(L8:L42)/35)</f>
-        <v>19.914325090423418</v>
+        <v>41.582833277579688</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -14398,20 +12966,20 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>0.23403204351248397</v>
+        <v>0.24078583643171281</v>
       </c>
       <c r="D9" s="3">
-        <v>0.23762863050555053</v>
+        <v>0.23781466428084061</v>
       </c>
       <c r="E9" s="3">
-        <v>0.23829198361158857</v>
+        <v>0.23829793674601638</v>
       </c>
       <c r="F9" s="3">
-        <v>237.901642380829</v>
+        <v>238.12538940574944</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" ref="G9:G42" si="0">F9</f>
-        <v>237.901642380829</v>
+        <v>238.12538940574944</v>
       </c>
       <c r="H9" s="57">
         <v>23.839117647058668</v>
@@ -14422,15 +12990,15 @@
       </c>
       <c r="J9" s="59">
         <f t="shared" ref="J9:J42" si="1">(ABS(I9-G9)/G9)</f>
-        <v>2.0577163102306157E-3</v>
+        <v>1.1161643262842412E-3</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" ref="K9:K42" si="2">I9-G9</f>
-        <v>0.48953408975768298</v>
+        <v>0.26578706483724091</v>
       </c>
       <c r="L9" s="70">
         <f t="shared" ref="L9:L42" si="3">K9^2</f>
-        <v>0.23964362503488321</v>
+        <v>7.0642763834795702E-2</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -14445,20 +13013,20 @@
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>0.26117937569439165</v>
+        <v>0.27621485618741992</v>
       </c>
       <c r="D10" s="3">
-        <v>0.2366852678970133</v>
+        <v>0.23686899270833997</v>
       </c>
       <c r="E10" s="3">
-        <v>0.23826270454988407</v>
+        <v>0.23828901033208097</v>
       </c>
       <c r="F10" s="3">
-        <v>237.99541711245371</v>
+        <v>238.39431914226688</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>237.99541711245371</v>
+        <v>238.39431914226688</v>
       </c>
       <c r="H10" s="57">
         <v>23.929065573770334</v>
@@ -14469,15 +13037,15 @@
       </c>
       <c r="J10" s="59">
         <f t="shared" si="1"/>
-        <v>5.4422838933811026E-3</v>
+        <v>3.7598907501715426E-3</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" si="2"/>
-        <v>1.295238625249624</v>
+        <v>0.89633659543645194</v>
       </c>
       <c r="L10" s="70">
         <f t="shared" si="3"/>
-        <v>1.6776430963385358</v>
+        <v>0.80341929231860976</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -14492,20 +13060,20 @@
         <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>0.24170764666603825</v>
+        <v>0.258076797547797</v>
       </c>
       <c r="D11" s="3">
-        <v>0.23593178056661521</v>
+        <v>0.23636177066849448</v>
       </c>
       <c r="E11" s="3">
-        <v>0.23822101354352732</v>
+        <v>0.23827577704681566</v>
       </c>
       <c r="F11" s="3">
-        <v>237.23769903659797</v>
+        <v>237.79135452280752</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>237.23769903659797</v>
+        <v>237.79135452280752</v>
       </c>
       <c r="H11" s="57">
         <v>23.482235772357964</v>
@@ -14516,15 +13084,15 @@
       </c>
       <c r="J11" s="59">
         <f t="shared" si="1"/>
-        <v>1.0181102425233535E-2</v>
+        <v>1.2485722221423792E-2</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="2"/>
-        <v>-2.415341313018331</v>
+        <v>-2.968996799227881</v>
       </c>
       <c r="L11" s="70">
         <f t="shared" si="3"/>
-        <v>5.8338736583731148</v>
+        <v>8.8149419938254017</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -14539,20 +13107,20 @@
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>0.23646748388171643</v>
+        <v>0.2509876665308115</v>
       </c>
       <c r="D12" s="3">
-        <v>0.23453209199489169</v>
+        <v>0.23527183945624364</v>
       </c>
       <c r="E12" s="3">
-        <v>0.23815552688479358</v>
+        <v>0.23825586744261396</v>
       </c>
       <c r="F12" s="3">
-        <v>236.45498597537718</v>
+        <v>237.13785055064756</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>236.45498597537718</v>
+        <v>237.13785055064756</v>
       </c>
       <c r="H12" s="57">
         <v>23.050303030303041</v>
@@ -14563,15 +13131,15 @@
       </c>
       <c r="J12" s="59">
         <f t="shared" si="1"/>
-        <v>2.5171622614743958E-2</v>
+        <v>2.7978748361810284E-2</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="2"/>
-        <v>-5.9519556723467701</v>
+        <v>-6.6348202476171423</v>
       </c>
       <c r="L12" s="70">
         <f t="shared" si="3"/>
-        <v>35.425776325580891</v>
+        <v>44.020839718190395</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -14586,20 +13154,20 @@
         <v>19</v>
       </c>
       <c r="C13" s="3">
-        <v>0.23484406991797507</v>
+        <v>0.24893600852898159</v>
       </c>
       <c r="D13" s="3">
-        <v>0.23314775257838416</v>
+        <v>0.23413107485796802</v>
       </c>
       <c r="E13" s="3">
-        <v>0.23806266298928982</v>
+        <v>0.23822727995691173</v>
       </c>
       <c r="F13" s="3">
-        <v>235.73743233884693</v>
+        <v>236.55720018283904</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>235.73743233884693</v>
+        <v>236.55720018283904</v>
       </c>
       <c r="H13" s="57">
         <v>22.654267015706743</v>
@@ -14610,15 +13178,15 @@
       </c>
       <c r="J13" s="59">
         <f t="shared" si="1"/>
-        <v>3.9004251851538836E-2</v>
+        <v>4.2334496764550783E-2</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="2"/>
-        <v>-9.1947621817794811</v>
+        <v>-10.014530025771592</v>
       </c>
       <c r="L13" s="70">
         <f t="shared" si="3"/>
-        <v>84.543651579482159</v>
+        <v>100.29081163708075</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -14633,20 +13201,20 @@
         <v>8</v>
       </c>
       <c r="C14" s="40">
-        <v>0.31898598666159678</v>
+        <v>0.34396454172591884</v>
       </c>
       <c r="D14" s="40">
-        <v>0.26356650771759171</v>
+        <v>0.26536344460824463</v>
       </c>
       <c r="E14" s="40">
-        <v>0.23872156669161421</v>
+        <v>0.2385031077195186</v>
       </c>
       <c r="F14" s="3">
-        <v>251.75552796296353</v>
+        <v>252.96809136846059</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>251.75552796296353</v>
+        <v>252.96809136846059</v>
       </c>
       <c r="H14" s="57">
         <v>27.313671444322264</v>
@@ -14657,15 +13225,15 @@
       </c>
       <c r="J14" s="59">
         <f t="shared" si="1"/>
-        <v>8.4928369411632287E-2</v>
+        <v>7.9727933138355467E-2</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="2"/>
-        <v>21.381186480259089</v>
+        <v>20.168623074762024</v>
       </c>
       <c r="L14" s="70">
         <f t="shared" si="3"/>
-        <v>457.15513530361403</v>
+        <v>406.77335673182318</v>
       </c>
       <c r="O14" s="40"/>
       <c r="P14" s="40"/>
@@ -14680,20 +13248,20 @@
         <v>0</v>
       </c>
       <c r="C15" s="40">
-        <v>0.28438963987343863</v>
+        <v>0.29816574117589673</v>
       </c>
       <c r="D15" s="40">
-        <v>0.27215571704369573</v>
+        <v>0.27672507094422755</v>
       </c>
       <c r="E15" s="40">
-        <v>0.24189741986479432</v>
+        <v>0.24064129783468216</v>
       </c>
       <c r="F15" s="3">
-        <v>256.66608096726185</v>
+        <v>258.39032233189732</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>256.66608096726185</v>
+        <v>258.39032233189732</v>
       </c>
       <c r="H15" s="57">
         <v>28.196189710610948</v>
@@ -14704,15 +13272,15 @@
       </c>
       <c r="J15" s="59">
         <f t="shared" si="1"/>
-        <v>9.8555352711658592E-2</v>
+        <v>9.1224681178016062E-2</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="2"/>
-        <v>25.295816138847613</v>
+        <v>23.571574774212138</v>
       </c>
       <c r="L15" s="70">
         <f t="shared" si="3"/>
-        <v>639.87831413038339</v>
+        <v>555.61913733627398</v>
       </c>
       <c r="O15" s="40"/>
       <c r="P15" s="40"/>
@@ -14727,20 +13295,20 @@
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>0.25535613191185053</v>
+        <v>0.26236700285317971</v>
       </c>
       <c r="D16" s="3">
-        <v>0.26571178176910237</v>
+        <v>0.27264604343106591</v>
       </c>
       <c r="E16" s="3">
-        <v>0.24504716136579507</v>
+        <v>0.24309860622712676</v>
       </c>
       <c r="F16" s="3">
-        <v>254.75906616223756</v>
+        <v>257.07579527345985</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>254.75906616223756</v>
+        <v>257.07579527345985</v>
       </c>
       <c r="H16" s="57">
         <v>26.799947575360278</v>
@@ -14751,15 +13319,15 @@
       </c>
       <c r="J16" s="59">
         <f t="shared" si="1"/>
-        <v>5.1972280283573362E-2</v>
+        <v>4.2492061411394492E-2</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="2"/>
-        <v>13.240409591365221</v>
+        <v>10.923680480142934</v>
       </c>
       <c r="L16" s="70">
         <f t="shared" si="3"/>
-        <v>175.30844614711614</v>
+        <v>119.32679523225576</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -14774,20 +13342,20 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>0.25023920038381497</v>
+        <v>0.25908115129995479</v>
       </c>
       <c r="D17" s="3">
-        <v>0.26000090401277481</v>
+        <v>0.26850163398596649</v>
       </c>
       <c r="E17" s="3">
-        <v>0.24694220641394665</v>
+        <v>0.24475607486449624</v>
       </c>
       <c r="F17" s="3">
-        <v>253.015147188805</v>
+        <v>255.9655335890817</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>253.015147188805</v>
+        <v>255.9655335890817</v>
       </c>
       <c r="H17" s="57">
         <v>25.104677419354772</v>
@@ -14798,15 +13366,15 @@
       </c>
       <c r="J17" s="59">
         <f t="shared" si="1"/>
-        <v>7.779664645091164E-3</v>
+        <v>1.9216491089891773E-2</v>
       </c>
       <c r="K17" s="15">
         <f t="shared" si="2"/>
-        <v>-1.9683729952572833</v>
+        <v>-4.9187593955339821</v>
       </c>
       <c r="L17" s="70">
         <f t="shared" si="3"/>
-        <v>3.8744922484581288</v>
+        <v>24.194193991153824</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -14821,20 +13389,20 @@
         <v>89</v>
       </c>
       <c r="C18" s="3">
-        <v>0.24634432234695039</v>
+        <v>0.25656998121014352</v>
       </c>
       <c r="D18" s="3">
-        <v>0.25529175956351885</v>
+        <v>0.26501843105155626</v>
       </c>
       <c r="E18" s="3">
-        <v>0.24799232724556999</v>
+        <v>0.24588770249412059</v>
       </c>
       <c r="F18" s="3">
-        <v>251.31710601385407</v>
+        <v>254.90148320486145</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>251.31710601385407</v>
+        <v>254.90148320486145</v>
       </c>
       <c r="H18" s="57">
         <v>27.897916181606572</v>
@@ -14845,15 +13413,15 @@
       </c>
       <c r="J18" s="59">
         <f t="shared" si="1"/>
-        <v>0.11006833653689586</v>
+        <v>9.4458762297013749E-2</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="2"/>
-        <v>27.662055802211626</v>
+        <v>24.077678611204249</v>
       </c>
       <c r="L18" s="70">
         <f t="shared" si="3"/>
-        <v>765.18933120466988</v>
+        <v>579.73460730444253</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -14868,20 +13436,20 @@
         <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>0.32722317683116026</v>
+        <v>0.39</v>
       </c>
       <c r="D19" s="3">
-        <v>0.33468623828328309</v>
+        <v>0.30358180911404981</v>
       </c>
       <c r="E19" s="3">
-        <v>0.29284980484218825</v>
+        <v>0.25135014870364614</v>
       </c>
       <c r="F19" s="3">
-        <v>312.78203166487128</v>
+        <v>333.44627661457298</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>312.78203166487128</v>
+        <v>333.44627661457298</v>
       </c>
       <c r="H19" s="57">
         <v>32.029561830574458</v>
@@ -14892,15 +13460,15 @@
       </c>
       <c r="J19" s="59">
         <f t="shared" si="1"/>
-        <v>2.4021797546617728E-2</v>
+        <v>3.9438611947762395E-2</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="2"/>
-        <v>7.5135866408733136</v>
+        <v>-13.150658308828383</v>
       </c>
       <c r="L19" s="70">
         <f t="shared" si="3"/>
-        <v>56.453984209909926</v>
+        <v>172.93981395555699</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -14911,20 +13479,20 @@
         <v>0</v>
       </c>
       <c r="C20" s="40">
-        <v>0.30168549324023275</v>
+        <v>0.30327471380125409</v>
       </c>
       <c r="D20" s="40">
-        <v>0.31007082770363631</v>
+        <v>0.34576304253376539</v>
       </c>
       <c r="E20" s="40">
-        <v>0.29889928681531563</v>
+        <v>0.29649917612805787</v>
       </c>
       <c r="F20" s="3">
-        <v>304.09391975244148</v>
+        <v>319.29606542814724</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>304.09391975244148</v>
+        <v>319.29606542814724</v>
       </c>
       <c r="H20" s="57">
         <v>30.046079335793408</v>
@@ -14935,15 +13503,15 @@
       </c>
       <c r="J20" s="59">
         <f t="shared" si="1"/>
-        <v>1.1947382563469364E-2</v>
+        <v>5.8989991138652879E-2</v>
       </c>
       <c r="K20" s="15">
         <f t="shared" si="2"/>
-        <v>-3.6331263945073715</v>
+        <v>-18.835272070213136</v>
       </c>
       <c r="L20" s="70">
         <f t="shared" si="3"/>
-        <v>13.199607398466133</v>
+        <v>354.76747395895103</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -14954,20 +13522,20 @@
         <v>13</v>
       </c>
       <c r="C21" s="3">
-        <v>0.28622835526344786</v>
+        <v>0.28677899588266198</v>
       </c>
       <c r="D21" s="3">
-        <v>0.29890461389219264</v>
+        <v>0.30501506388761285</v>
       </c>
       <c r="E21" s="3">
-        <v>0.29941664262096446</v>
+        <v>0.30344854212473366</v>
       </c>
       <c r="F21" s="3">
-        <v>298.91734365857911</v>
+        <v>303.83575121081662</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>298.91734365857911</v>
+        <v>303.83575121081662</v>
       </c>
       <c r="H21" s="57">
         <v>28.78559615384648</v>
@@ -14978,15 +13546,15 @@
       </c>
       <c r="J21" s="59">
         <f t="shared" si="1"/>
-        <v>3.7004818739285163E-2</v>
+        <v>5.2593513464662213E-2</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="2"/>
-        <v>-11.061382120114331</v>
+        <v>-15.979789672351842</v>
       </c>
       <c r="L21" s="70">
         <f t="shared" si="3"/>
-        <v>122.35417440718501</v>
+        <v>255.35367797260258</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -14997,20 +13565,20 @@
         <v>87</v>
       </c>
       <c r="C22" s="3">
-        <v>0.32993825029497692</v>
+        <v>0.30523718125692206</v>
       </c>
       <c r="D22" s="3">
-        <v>0.31130250287053712</v>
+        <v>0.30893339051747687</v>
       </c>
       <c r="E22" s="3">
-        <v>0.29989130273471964</v>
+        <v>0.30406081890752107</v>
       </c>
       <c r="F22" s="3">
-        <v>305.74139374840081</v>
+        <v>306.32572909508878</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
-        <v>305.74139374840081</v>
+        <v>306.32572909508878</v>
       </c>
       <c r="H22" s="57">
         <v>31.642643442622873</v>
@@ -15021,15 +13589,15 @@
       </c>
       <c r="J22" s="59">
         <f t="shared" si="1"/>
-        <v>3.4947968761537156E-2</v>
+        <v>3.2973741255683239E-2</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="2"/>
-        <v>10.685040677827942</v>
+        <v>10.100705331139977</v>
       </c>
       <c r="L22" s="70">
         <f t="shared" si="3"/>
-        <v>114.17009428683781</v>
+        <v>102.02424818651956</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -15040,20 +13608,20 @@
         <v>7</v>
       </c>
       <c r="C23" s="3">
-        <v>0.32593741094575851</v>
+        <v>0.37915763130499386</v>
       </c>
       <c r="D23" s="3">
-        <v>0.33499798047649754</v>
+        <v>0.3722494663392969</v>
       </c>
       <c r="E23" s="3">
-        <v>0.32429488241727034</v>
+        <v>0.33114485733863669</v>
       </c>
       <c r="F23" s="3">
-        <v>329.25115809508463</v>
+        <v>351.01323295826757</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
-        <v>329.25115809508463</v>
+        <v>351.01323295826757</v>
       </c>
       <c r="H23" s="57">
         <v>32.228456104944506</v>
@@ -15064,15 +13632,15 @@
       </c>
       <c r="J23" s="59">
         <f t="shared" si="1"/>
-        <v>2.1158914325299569E-2</v>
+        <v>8.1844982500241178E-2</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="2"/>
-        <v>-6.9665970456395598</v>
+        <v>-28.728671908822491</v>
       </c>
       <c r="L23" s="70">
         <f t="shared" si="3"/>
-        <v>48.533474396313842</v>
+        <v>825.33658964476649</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -15083,20 +13651,20 @@
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>0.31397611601011699</v>
+        <v>0.29010817994647886</v>
       </c>
       <c r="D24" s="3">
-        <v>0.2902844830575993</v>
+        <v>0.30565167786797348</v>
       </c>
       <c r="E24" s="3">
-        <v>0.31681896872355775</v>
+        <v>0.33109338967957597</v>
       </c>
       <c r="F24" s="3">
-        <v>304.55624826294803</v>
+        <v>318.57049805157692</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="0"/>
-        <v>304.55624826294803</v>
+        <v>318.57049805157692</v>
       </c>
       <c r="H24" s="57">
         <v>30.433051330798698</v>
@@ -15107,15 +13675,15 @@
       </c>
       <c r="J24" s="59">
         <f t="shared" si="1"/>
-        <v>7.4119298569167488E-4</v>
+        <v>4.4699634243232679E-2</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="2"/>
-        <v>-0.22573495496106943</v>
+        <v>-14.239984743589957</v>
       </c>
       <c r="L24" s="70">
         <f t="shared" si="3"/>
-        <v>5.0956269891276045E-2</v>
+        <v>202.77716549767473</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -15126,20 +13694,20 @@
         <v>7</v>
       </c>
       <c r="C25" s="40">
-        <v>0.27784398833179541</v>
+        <v>0.28005522332439858</v>
       </c>
       <c r="D25" s="40">
-        <v>0.28358061435742549</v>
+        <v>0.28428575175428877</v>
       </c>
       <c r="E25" s="40">
-        <v>0.30859795033264803</v>
+        <v>0.31576035988930107</v>
       </c>
       <c r="F25" s="3">
-        <v>296.47489654402864</v>
+        <v>300.5679374158974</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
-        <v>296.47489654402864</v>
+        <v>300.5679374158974</v>
       </c>
       <c r="H25" s="57">
         <v>29.758445544554792</v>
@@ -15150,15 +13718,15 @@
       </c>
       <c r="J25" s="59">
         <f t="shared" si="1"/>
-        <v>3.7425054008054983E-3</v>
+        <v>9.9261484641365045E-3</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="2"/>
-        <v>1.1095589015192786</v>
+        <v>-2.9834819703494873</v>
       </c>
       <c r="L25" s="70">
         <f t="shared" si="3"/>
-        <v>1.2311209559406682</v>
+        <v>8.9011646674004581</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -15169,20 +13737,20 @@
         <v>0</v>
       </c>
       <c r="C26" s="40">
-        <v>0.30804135716248526</v>
+        <v>0.31264678845507815</v>
       </c>
       <c r="D26" s="40">
-        <v>0.28951080397108608</v>
+        <v>0.28804510099156999</v>
       </c>
       <c r="E26" s="40">
-        <v>0.30454783220171533</v>
+        <v>0.30571474099181223</v>
       </c>
       <c r="F26" s="3">
-        <v>297.7006697148413</v>
+        <v>297.72534754096614</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="0"/>
-        <v>297.7006697148413</v>
+        <v>297.72534754096614</v>
       </c>
       <c r="H26" s="57">
         <v>28.346896551724452</v>
@@ -15193,15 +13761,15 @@
       </c>
       <c r="J26" s="59">
         <f t="shared" si="1"/>
-        <v>4.7805415457173574E-2</v>
+        <v>4.7884340858011777E-2</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="2"/>
-        <v>-14.231704197596798</v>
+        <v>-14.256382023721642</v>
       </c>
       <c r="L26" s="70">
         <f t="shared" si="3"/>
-        <v>202.54140436789433</v>
+        <v>203.24442840629357</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -15212,20 +13780,20 @@
         <v>0</v>
       </c>
       <c r="C27" s="40">
-        <v>0.27922628559070323</v>
+        <v>0.27767695657376662</v>
       </c>
       <c r="D27" s="40">
-        <v>0.28402936198493195</v>
+        <v>0.28327059772910473</v>
       </c>
       <c r="E27" s="40">
-        <v>0.30068152356501077</v>
+        <v>0.3003989137491514</v>
       </c>
       <c r="F27" s="3">
-        <v>292.59242447868837</v>
+        <v>292.0654492364223</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="0"/>
-        <v>292.59242447868837</v>
+        <v>292.0654492364223</v>
       </c>
       <c r="H27" s="57">
         <v>26.394255924170523</v>
@@ -15236,15 +13804,15 @@
       </c>
       <c r="J27" s="59">
         <f t="shared" si="1"/>
-        <v>9.7917317196535694E-2</v>
+        <v>9.6289684617751697E-2</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="2"/>
-        <v>-28.649865236983146</v>
+        <v>-28.12288999471707</v>
       </c>
       <c r="L27" s="70">
         <f t="shared" si="3"/>
-        <v>820.81477809729529</v>
+        <v>790.89694165495746</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -15255,20 +13823,20 @@
         <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>0.2724663018261414</v>
+        <v>0.27261442890373344</v>
       </c>
       <c r="D28" s="3">
-        <v>0.28128219564703227</v>
+        <v>0.28112310717262479</v>
       </c>
       <c r="E28" s="3">
-        <v>0.29419408959660115</v>
+        <v>0.29540265614349204</v>
       </c>
       <c r="F28" s="3">
-        <v>287.82006262439029</v>
+        <v>288.37829907209795</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="0"/>
-        <v>287.82006262439029</v>
+        <v>288.37829907209795</v>
       </c>
       <c r="H28" s="57">
         <v>24.990241312741233</v>
@@ -15279,15 +13847,15 @@
       </c>
       <c r="J28" s="59">
         <f t="shared" si="1"/>
-        <v>0.13174081456045364</v>
+        <v>0.13342157183285902</v>
       </c>
       <c r="K28" s="15">
         <f t="shared" si="2"/>
-        <v>-37.917649496977958</v>
+        <v>-38.475885944685615</v>
       </c>
       <c r="L28" s="70">
         <f t="shared" si="3"/>
-        <v>1437.7481433756727</v>
+        <v>1480.3937992284561</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -15298,20 +13866,20 @@
         <v>0</v>
       </c>
       <c r="C29" s="3">
-        <v>0.26874589221829398</v>
+        <v>0.26957332009457713</v>
       </c>
       <c r="D29" s="3">
-        <v>0.27954917864207357</v>
+        <v>0.27990437724364442</v>
       </c>
       <c r="E29" s="3">
-        <v>0.28756736372107672</v>
+        <v>0.29023925381295784</v>
       </c>
       <c r="F29" s="3">
-        <v>283.50256915467963</v>
+        <v>285.07189191670608</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="0"/>
-        <v>283.50256915467963</v>
+        <v>285.07189191670608</v>
       </c>
       <c r="H29" s="57">
         <v>25.10273866923826</v>
@@ -15322,15 +13890,15 @@
       </c>
       <c r="J29" s="59">
         <f t="shared" si="1"/>
-        <v>0.114549870073941</v>
+        <v>0.11942427924206148</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="2"/>
-        <v>-32.475182462297028</v>
+        <v>-34.044505224323473</v>
       </c>
       <c r="L29" s="70">
         <f t="shared" si="3"/>
-        <v>1054.6374759594844</v>
+        <v>1159.0283359689881</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -15341,20 +13909,20 @@
         <v>1</v>
       </c>
       <c r="C30" s="3">
-        <v>0.26573582157673259</v>
+        <v>0.26846744369878317</v>
       </c>
       <c r="D30" s="3">
-        <v>0.27610823720821565</v>
+        <v>0.27834551751823061</v>
       </c>
       <c r="E30" s="3">
-        <v>0.28343775145712441</v>
+        <v>0.28617446256722862</v>
       </c>
       <c r="F30" s="3">
-        <v>279.71213630501859</v>
+        <v>282.21900746732069</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="0"/>
-        <v>279.71213630501859</v>
+        <v>282.21900746732069</v>
       </c>
       <c r="H30" s="57">
         <v>25.065714285714499</v>
@@ -15365,15 +13933,15 @@
       </c>
       <c r="J30" s="59">
         <f t="shared" si="1"/>
-        <v>0.10387462564795506</v>
+        <v>0.11183465243328931</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="2"/>
-        <v>-29.054993447873585</v>
+        <v>-31.561864610175689</v>
       </c>
       <c r="L30" s="70">
         <f t="shared" si="3"/>
-        <v>844.19264425597692</v>
+        <v>996.15129767106066</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -15384,20 +13952,20 @@
         <v>44</v>
       </c>
       <c r="C31" s="3">
-        <v>0.26675222894034384</v>
+        <v>0.27252388217895712</v>
       </c>
       <c r="D31" s="3">
-        <v>0.27360456694648821</v>
+        <v>0.27758227049444578</v>
       </c>
       <c r="E31" s="3">
-        <v>0.2808603365071336</v>
+        <v>0.28361753219023295</v>
       </c>
       <c r="F31" s="3">
-        <v>277.240520357901</v>
+        <v>280.61943880994534</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="0"/>
-        <v>277.240520357901</v>
+        <v>280.61943880994534</v>
       </c>
       <c r="H31" s="57">
         <v>29.76519371727748</v>
@@ -15408,15 +13976,15 @@
       </c>
       <c r="J31" s="59">
         <f t="shared" si="1"/>
-        <v>7.362349770705913E-2</v>
+        <v>6.0696074495270598E-2</v>
       </c>
       <c r="K31" s="15">
         <f t="shared" si="2"/>
-        <v>20.411416814873803</v>
+        <v>17.032498362829472</v>
       </c>
       <c r="L31" s="70">
         <f t="shared" si="3"/>
-        <v>416.625936390513</v>
+        <v>290.10600047978863</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -15427,20 +13995,20 @@
         <v>53</v>
       </c>
       <c r="C32" s="3">
-        <v>0.31353318966881999</v>
+        <v>0.39</v>
       </c>
       <c r="D32" s="3">
-        <v>0.32357678533763617</v>
+        <v>0.32134529864851297</v>
       </c>
       <c r="E32" s="3">
-        <v>0.29137081031502415</v>
+        <v>0.28769639785883389</v>
       </c>
       <c r="F32" s="3">
-        <v>306.6288064125016</v>
+        <v>315.91336205864457</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>306.6288064125016</v>
+        <v>315.91336205864457</v>
       </c>
       <c r="H32" s="57">
         <v>33.404543630892626</v>
@@ -15451,15 +14019,15 @@
       </c>
       <c r="J32" s="59">
         <f t="shared" si="1"/>
-        <v>8.9413092713610198E-2</v>
+        <v>5.7395718028906063E-2</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="2"/>
-        <v>27.416629896424638</v>
+        <v>18.132074250281676</v>
       </c>
       <c r="L32" s="70">
         <f t="shared" si="3"/>
-        <v>751.67159487752531</v>
+        <v>328.77211661772782</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -15470,20 +14038,20 @@
         <v>27</v>
       </c>
       <c r="C33">
-        <v>0.31282890184375955</v>
+        <v>0.34400597796727128</v>
       </c>
       <c r="D33">
-        <v>0.32963462264851917</v>
+        <v>0.3519655961741337</v>
       </c>
       <c r="E33">
-        <v>0.30984006731377584</v>
+        <v>0.3166503485399112</v>
       </c>
       <c r="F33">
-        <v>319.00533945835741</v>
+        <v>333.44247504020075</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
-        <v>319.00533945835741</v>
+        <v>333.44247504020075</v>
       </c>
       <c r="H33" s="57">
         <v>32.796229838709721</v>
@@ -15494,15 +14062,15 @@
       </c>
       <c r="J33" s="59">
         <f t="shared" si="1"/>
-        <v>2.8077771186989973E-2</v>
+        <v>1.6435148678772275E-2</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="2"/>
-        <v>8.956958928739823</v>
+        <v>-5.4801766531035128</v>
       </c>
       <c r="L33" s="70">
         <f t="shared" si="3"/>
-        <v>80.227113251132039</v>
+        <v>30.032336149220818</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -15513,20 +14081,20 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.30811774779315582</v>
+        <v>0.3167944230916182</v>
       </c>
       <c r="D34">
-        <v>0.31847130438681515</v>
+        <v>0.32336674348545613</v>
       </c>
       <c r="E34">
-        <v>0.31463207596886433</v>
+        <v>0.32467998511035889</v>
       </c>
       <c r="F34">
-        <v>316.26783447760749</v>
+        <v>323.9181827225288</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="0"/>
-        <v>316.26783447760749</v>
+        <v>323.9181827225288</v>
       </c>
       <c r="H34" s="57">
         <v>31.639990029910287</v>
@@ -15537,15 +14105,15 @@
       </c>
       <c r="J34" s="59">
         <f t="shared" si="1"/>
-        <v>4.1757588694878861E-4</v>
+        <v>2.3210436537507286E-2</v>
       </c>
       <c r="K34" s="15">
         <f t="shared" si="2"/>
-        <v>0.13206582149535961</v>
+        <v>-7.5182824234259442</v>
       </c>
       <c r="L34" s="70">
         <f t="shared" si="3"/>
-        <v>1.7441381207244189E-2</v>
+        <v>56.524570598395492</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -15556,20 +14124,20 @@
         <v>42</v>
       </c>
       <c r="C35">
-        <v>0.31383399137328399</v>
+        <v>0.32573153855763382</v>
       </c>
       <c r="D35">
-        <v>0.31932816434310868</v>
+        <v>0.3250016095140229</v>
       </c>
       <c r="E35">
-        <v>0.31684455330668587</v>
+        <v>0.32453274828223416</v>
       </c>
       <c r="F35">
-        <v>317.92680314477229</v>
+        <v>324.77240025436492</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="0"/>
-        <v>317.92680314477229</v>
+        <v>324.77240025436492</v>
       </c>
       <c r="H35" s="57">
         <v>33.125084409136065</v>
@@ -15580,15 +14148,15 @@
       </c>
       <c r="J35" s="59">
         <f t="shared" si="1"/>
-        <v>4.1909146428654745E-2</v>
+        <v>1.9947642816697916E-2</v>
       </c>
       <c r="K35" s="15">
         <f t="shared" si="2"/>
-        <v>13.324040946588354</v>
+        <v>6.4784438369957229</v>
       </c>
       <c r="L35" s="70">
         <f t="shared" si="3"/>
-        <v>177.53006714636308</v>
+        <v>41.970234549107865</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -15599,20 +14167,20 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>0.31741725320858494</v>
+        <v>0.33221782505633179</v>
       </c>
       <c r="D36">
-        <v>0.32076580111405234</v>
+        <v>0.33212939098261335</v>
       </c>
       <c r="E36">
-        <v>0.31897879572859983</v>
+        <v>0.32715980765452862</v>
       </c>
       <c r="F36">
-        <v>319.76958735550772</v>
+        <v>329.5469763334836</v>
       </c>
       <c r="G36" s="3">
         <f>F36</f>
-        <v>319.76958735550772</v>
+        <v>329.5469763334836</v>
       </c>
       <c r="H36" s="57">
         <v>31.253610567514585</v>
@@ -15623,15 +14191,15 @@
       </c>
       <c r="J36" s="59">
         <f t="shared" si="1"/>
-        <v>2.2620918206083074E-2</v>
+        <v>5.1618955353799623E-2</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="2"/>
-        <v>-7.2334816803618764</v>
+        <v>-17.010870658337751</v>
       </c>
       <c r="L36" s="70">
         <f t="shared" si="3"/>
-        <v>52.323257220130877</v>
+        <v>289.36972055469624</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -15642,20 +14210,20 @@
         <v>269</v>
       </c>
       <c r="C37">
-        <v>0.31016985970481259</v>
+        <v>0.30799645466620978</v>
       </c>
       <c r="D37">
-        <v>0.29584041154573426</v>
+        <v>0.29831688409493012</v>
       </c>
       <c r="E37">
-        <v>0.31510053324459458</v>
+        <v>0.32188873252476718</v>
       </c>
       <c r="F37">
-        <v>306.14226379232321</v>
+        <v>310.76783668987105</v>
       </c>
       <c r="G37" s="3">
-        <f>F37*1.5</f>
-        <v>459.21339568848481</v>
+        <f>F37</f>
+        <v>310.76783668987105</v>
       </c>
       <c r="H37" s="57">
         <v>49.394859359844446</v>
@@ -15666,15 +14234,15 @@
       </c>
       <c r="J37" s="59">
         <f t="shared" si="1"/>
-        <v>7.564064601791988E-2</v>
+        <v>0.58944567385001811</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="2"/>
-        <v>34.735197909959652</v>
+        <v>183.18075690857341</v>
       </c>
       <c r="L37" s="70">
         <f t="shared" si="3"/>
-        <v>1206.5339738440655</v>
+        <v>33555.189701597868</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -15688,17 +14256,17 @@
         <v>0.39</v>
       </c>
       <c r="D38">
-        <v>0.31087037559147462</v>
+        <v>0.36402153925837533</v>
       </c>
       <c r="E38">
-        <v>0.3399686782318157</v>
+        <v>0.32578848609672856</v>
       </c>
       <c r="F38">
-        <v>413.53234343586576</v>
+        <v>527.53501040668789</v>
       </c>
       <c r="G38" s="3">
-        <f>F38*1.35</f>
-        <v>558.26866363841884</v>
+        <f>F38</f>
+        <v>527.53501040668789</v>
       </c>
       <c r="H38" s="65">
         <v>53.245215264187699</v>
@@ -15709,15 +14277,15 @@
       </c>
       <c r="J38" s="59">
         <f>(ABS(I38-G38)/G38)</f>
-        <v>4.6243883416789415E-2</v>
+        <v>9.320978016981965E-3</v>
       </c>
       <c r="K38" s="15">
         <f t="shared" si="2"/>
-        <v>-25.816510996541865</v>
+        <v>4.9171422351890897</v>
       </c>
       <c r="L38" s="70">
         <f t="shared" si="3"/>
-        <v>666.49224003456709</v>
+        <v>24.178287761080355</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -15728,20 +14296,20 @@
         <v>8</v>
       </c>
       <c r="C39">
-        <v>0.01</v>
+        <v>0.39</v>
       </c>
       <c r="D39">
-        <v>0.39</v>
+        <v>0.3829633158129927</v>
       </c>
       <c r="E39">
-        <v>0.1924873856281375</v>
+        <v>0.36349165013828016</v>
       </c>
       <c r="F39">
-        <v>321.49648769164571</v>
+        <v>466.9930752691721</v>
       </c>
       <c r="G39" s="3">
-        <f>F39*1.15</f>
-        <v>369.72096084539254</v>
+        <f>F39</f>
+        <v>466.9930752691721</v>
       </c>
       <c r="H39" s="65">
         <v>38.059320175438501</v>
@@ -15752,15 +14320,15 @@
       </c>
       <c r="J39" s="59">
         <f t="shared" si="1"/>
-        <v>2.9406612176199953E-2</v>
+        <v>0.18501317918897769</v>
       </c>
       <c r="K39" s="15">
         <f t="shared" si="2"/>
-        <v>10.872240908992467</v>
+        <v>-86.399873514787089</v>
       </c>
       <c r="L39" s="70">
         <f t="shared" si="3"/>
-        <v>118.20562238316934</v>
+        <v>7464.9381433712078</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -15774,17 +14342,17 @@
         <v>0.39</v>
       </c>
       <c r="D40">
-        <v>0.01</v>
+        <v>0.38706845264095674</v>
       </c>
       <c r="E40">
-        <v>0.21586593319609279</v>
+        <v>0.38032078749624348</v>
       </c>
       <c r="F40">
-        <v>310.74585673322423</v>
+        <v>402.41222599931893</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="0"/>
-        <v>310.74585673322423</v>
+        <v>402.41222599931893</v>
       </c>
       <c r="H40" s="65">
         <v>31.054798076922918</v>
@@ -15795,15 +14363,15 @@
       </c>
       <c r="J40" s="59">
         <f t="shared" si="1"/>
-        <v>6.3677748136452923E-4</v>
+        <v>0.22828393198532002</v>
       </c>
       <c r="K40" s="15">
         <f t="shared" si="2"/>
-        <v>-0.19787596399504537</v>
+        <v>-91.86424523008975</v>
       </c>
       <c r="L40" s="70">
         <f t="shared" si="3"/>
-        <v>3.9154897126968492E-2</v>
+        <v>8439.039551694068</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -15814,20 +14382,20 @@
         <v>49</v>
       </c>
       <c r="C41">
-        <v>0.39</v>
+        <v>0.33174634325649377</v>
       </c>
       <c r="D41">
-        <v>0.01</v>
+        <v>0.35212951150724947</v>
       </c>
       <c r="E41">
-        <v>0.20604331784577332</v>
+        <v>0.37356468572486756</v>
       </c>
       <c r="F41">
-        <v>328.35109580396829</v>
+        <v>362.86813873539575</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="0"/>
-        <v>328.35109580396829</v>
+        <v>362.86813873539575</v>
       </c>
       <c r="H41" s="65">
         <v>36.095828677840181</v>
@@ -15838,15 +14406,15 @@
       </c>
       <c r="J41" s="59">
         <f t="shared" si="1"/>
-        <v>9.9305869208673611E-2</v>
+        <v>5.2632120407423997E-3</v>
       </c>
       <c r="K41" s="15">
         <f t="shared" si="2"/>
-        <v>32.607190974433536</v>
+        <v>-1.9098519569939185</v>
       </c>
       <c r="L41" s="70">
         <f t="shared" si="3"/>
-        <v>1063.2289032431797</v>
+        <v>3.6475344976335005</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -15857,20 +14425,20 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0.39</v>
+        <v>0.33793029151063492</v>
       </c>
       <c r="D42">
-        <v>0.01</v>
+        <v>0.3417103915995931</v>
       </c>
       <c r="E42">
-        <v>0.2008343792920049</v>
+        <v>0.35431672555343841</v>
       </c>
       <c r="F42">
-        <v>357.75745981830016</v>
+        <v>348.1900832538135</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="0"/>
-        <v>357.75745981830016</v>
+        <v>348.1900832538135</v>
       </c>
       <c r="H42" s="65">
         <v>30.813527168731987</v>
@@ -15881,21 +14449,21 @@
       </c>
       <c r="J42" s="59">
         <f t="shared" si="1"/>
-        <v>0.1387034337625907</v>
+        <v>0.11503719805051325</v>
       </c>
       <c r="K42" s="15">
         <f t="shared" si="2"/>
-        <v>-49.622188130980305</v>
+        <v>-40.05481156649364</v>
       </c>
       <c r="L42" s="70">
         <f t="shared" si="3"/>
-        <v>2462.3615549064025</v>
+        <v>1604.3879296273128</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F47">
         <f>F37/H37</f>
-        <v>6.197856776189175</v>
+        <v>6.2915015999116255</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">

--- a/soilmodel_hamaguchi_siltloam.xlsx
+++ b/soilmodel_hamaguchi_siltloam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12402\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C0E53C-52C5-4D0C-8B4D-88D358DC803D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3833F148-9576-43F3-B9DB-453ED05E2A79}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="-375" windowWidth="6570" windowHeight="7815" tabRatio="546" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="-375" windowWidth="6570" windowHeight="7815" tabRatio="546" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kumano" sheetId="14" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="Tables" sheetId="18" r:id="rId6"/>
     <sheet name="Control" sheetId="10" r:id="rId7"/>
     <sheet name="Output" sheetId="11" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_criteria">Control!$B$8</definedName>
@@ -192,8 +193,240 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>大北悠人</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{8DEFA843-351B-427F-87CA-B55288068F2F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>大北悠人:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+体積含水率の初期値を設定
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{E4DB7CAD-CAEA-40E7-B269-7D8C75760A0E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">大北悠人:
+DECAGON 5TEのセンサの位置に合わせて
+設定
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{E933D2A1-F44B-4C9B-BCA9-0E6D0508A27A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>大北悠人:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+収穫係数0.75を掛けた</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>大北悠人</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{6D454B40-A162-4C8F-8E65-B0BB5BF1ED35}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>大北悠人:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+透水係数の数値を変更
+(siltloam)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{FE6CC3E6-BA22-4FF6-BF05-3C3A29327862}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>大北悠人:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+精度がよくないため0.39→0.45の体積含水率時の透水係数を設定</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>大北悠人</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{5A0EDC81-A63F-4339-A35C-4BAB1D753FC7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>大北悠人:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+9月22日からのデータを設定
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{0C1B2557-88AD-4477-9BD7-0A3868BA2049}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>大北悠人:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+35日間</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>大北悠人</author>
+  </authors>
+  <commentList>
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{5A728D56-B4B6-48C0-85FD-2958464C783A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">大北悠人:
+各層の体積含水率から土壌水分量を算出しているので単位は[mm]
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="305">
   <si>
     <t>CONTROL</t>
   </si>
@@ -3557,10 +3790,75 @@
     <phoneticPr fontId="22"/>
   </si>
   <si>
-    <t>降水量</t>
+    <t>降水量[mm/day]</t>
     <rPh sb="0" eb="3">
       <t>コウスイリョウ</t>
     </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>MAE</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>残差(絶対値)</t>
+    <rPh sb="0" eb="2">
+      <t>ザンサ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ゼッタイチ</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>MAPE</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>RMSPE</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>(推定値-真値)/真値</t>
+    <rPh sb="1" eb="3">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンチ</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>相関</t>
+    <rPh sb="0" eb="2">
+      <t>ソウカン</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>tmin</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>rh</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>wind</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>rain</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>sunhr</t>
     <phoneticPr fontId="22"/>
   </si>
 </sst>
@@ -3578,7 +3876,7 @@
     <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="9"/>
       <name val="Arial"/>
@@ -3738,6 +4036,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3802,7 +4115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3932,6 +4245,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3966,7 +4289,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23215381944444444"/>
+          <c:y val="5.5953174603174602E-2"/>
+          <c:w val="0.55092812499999999"/>
+          <c:h val="0.59889801587301583"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -5297,7 +5630,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32836464186593384"/>
+          <c:y val="8.1151587301587294E-2"/>
+          <c:w val="0.5579457364341085"/>
+          <c:h val="0.59889801587301583"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -6663,7 +7006,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>降水量</c:v>
+                  <c:v>降水量[mm/day]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7483,7 +7826,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.13739149904840095"/>
           <c:y val="3.8300718739271516E-2"/>
-          <c:w val="0.27038300307248325"/>
+          <c:w val="0.36832929059223046"/>
           <c:h val="0.30682047569576509"/>
         </c:manualLayout>
       </c:layout>
@@ -8113,16 +8456,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>308250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>43500</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>60600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8149,16 +8492,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>192045</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>49170</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>138750</xdr:rowOff>
+      <xdr:rowOff>72075</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8187,16 +8530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>192045</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>53025</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>106320</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8225,16 +8568,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>317775</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>70125</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>138750</xdr:rowOff>
+      <xdr:rowOff>110175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8263,16 +8606,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8646,10 +8989,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="16" bestFit="1" customWidth="1"/>
@@ -8667,7 +9010,7 @@
     <col min="14" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="52" t="s">
         <v>1</v>
       </c>
@@ -8699,7 +9042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="50">
         <v>2017</v>
       </c>
@@ -8738,7 +9081,7 @@
         <v>33.479999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="50">
         <v>2017</v>
       </c>
@@ -8771,7 +9114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="50">
         <v>2017</v>
       </c>
@@ -8804,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="50">
         <v>2017</v>
       </c>
@@ -8837,7 +9180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="50">
         <v>2017</v>
       </c>
@@ -8871,7 +9214,7 @@
       </c>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="50">
         <v>2017</v>
       </c>
@@ -8904,7 +9247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="50">
         <v>2017</v>
       </c>
@@ -8937,7 +9280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="50">
         <v>2017</v>
       </c>
@@ -8970,7 +9313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="50">
         <v>2017</v>
       </c>
@@ -9003,7 +9346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="50">
         <v>2017</v>
       </c>
@@ -9036,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="50">
         <v>2017</v>
       </c>
@@ -9069,7 +9412,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="50">
         <v>2017</v>
       </c>
@@ -9102,7 +9445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="50">
         <v>2017</v>
       </c>
@@ -9135,7 +9478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="50">
         <v>2017</v>
       </c>
@@ -9168,7 +9511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="50">
         <v>2017</v>
       </c>
@@ -9201,7 +9544,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="50">
         <v>2017</v>
       </c>
@@ -9235,7 +9578,7 @@
       </c>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="50">
         <v>2017</v>
       </c>
@@ -9269,7 +9612,7 @@
       </c>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="50">
         <v>2017</v>
       </c>
@@ -9302,7 +9645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="50">
         <v>2017</v>
       </c>
@@ -9335,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="50">
         <v>2017</v>
       </c>
@@ -9368,7 +9711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="50">
         <v>2017</v>
       </c>
@@ -9401,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="50">
         <v>2017</v>
       </c>
@@ -9434,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="50">
         <v>2017</v>
       </c>
@@ -9467,7 +9810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="50">
         <v>2017</v>
       </c>
@@ -9500,7 +9843,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="50">
         <v>2017</v>
       </c>
@@ -9533,7 +9876,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="50">
         <v>2017</v>
       </c>
@@ -9566,7 +9909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="50">
         <v>2017</v>
       </c>
@@ -9599,7 +9942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="50">
         <v>2017</v>
       </c>
@@ -9632,7 +9975,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="50">
         <v>2017</v>
       </c>
@@ -9665,7 +10008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="50">
         <v>2017</v>
       </c>
@@ -9699,7 +10042,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="50">
         <v>2017</v>
       </c>
@@ -9732,7 +10075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="50">
         <v>2017</v>
       </c>
@@ -9765,7 +10108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="50">
         <v>2017</v>
       </c>
@@ -9798,7 +10141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="50">
         <v>2017</v>
       </c>
@@ -9831,7 +10174,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="50">
         <v>2017</v>
       </c>
@@ -9864,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="50">
         <v>2017</v>
       </c>
@@ -9897,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2224" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="2224" spans="12:12">
       <c r="L2224" s="16" t="s">
         <v>10</v>
       </c>
@@ -9919,7 +10262,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -9931,7 +10274,7 @@
     <col min="8" max="8" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -9940,7 +10283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="19.5">
       <c r="A2" s="5" t="s">
         <v>83</v>
       </c>
@@ -9962,7 +10305,7 @@
         <v>1411.0876453841188</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="19.5">
       <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
@@ -9984,7 +10327,7 @@
         <v>0.56467058547914695</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="19.5">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -9999,7 +10342,7 @@
         <v>21913564.404313002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="19.5">
       <c r="A5" s="5" t="s">
         <v>281</v>
       </c>
@@ -10018,7 +10361,7 @@
         <v>13901488.429655956</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="19.5">
       <c r="A6" s="5" t="s">
         <v>94</v>
       </c>
@@ -10034,7 +10377,7 @@
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="19.5">
       <c r="A7" s="5"/>
       <c r="D7" s="5" t="s">
         <v>31</v>
@@ -10052,7 +10395,7 @@
         <v>0.63437824048925062</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -10072,7 +10415,7 @@
         <v>13901488.429655956</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -10096,7 +10439,7 @@
         <v>3717224.1396063031</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="19.5">
       <c r="D10" s="5" t="s">
         <v>68</v>
       </c>
@@ -10113,7 +10456,7 @@
         <v>5613529.0269696638</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="19.5">
       <c r="D11" s="5" t="s">
         <v>82</v>
       </c>
@@ -10130,7 +10473,7 @@
         <v>3197342.33882087</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -10146,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="G13" s="10" t="s">
         <v>98</v>
       </c>
@@ -10155,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
@@ -10167,7 +10510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="19.5">
       <c r="D15" s="5" t="s">
         <v>36</v>
       </c>
@@ -10183,7 +10526,7 @@
         <v>5613529.0269696638</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="19.5">
       <c r="D16" s="5" t="s">
         <v>37</v>
       </c>
@@ -10199,7 +10542,7 @@
         <v>8287959.4026862923</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
@@ -10208,7 +10551,7 @@
         <v>10.468141061684832</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="19.5">
       <c r="G18" s="9" t="s">
         <v>57</v>
       </c>
@@ -10217,7 +10560,7 @@
         <v>890.2794014991598</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
@@ -10229,7 +10572,7 @@
         <v>505.47238338623453</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15">
       <c r="D20" s="6" t="s">
         <v>34</v>
       </c>
@@ -10245,7 +10588,7 @@
         <v>0.56467058547914695</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15">
       <c r="A21" s="2"/>
       <c r="D21" s="6" t="s">
         <v>35</v>
@@ -10262,7 +10605,7 @@
         <v>895.16329765489695</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15">
       <c r="A22" s="2"/>
       <c r="D22" s="7" t="s">
         <v>19</v>
@@ -10279,7 +10622,7 @@
         <v>-142.39698508480126</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15">
       <c r="D23" s="7" t="s">
         <v>20</v>
       </c>
@@ -10295,7 +10638,7 @@
         <v>714.92036220171326</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="19.5">
       <c r="D24" s="8" t="s">
         <v>96</v>
       </c>
@@ -10311,7 +10654,7 @@
         <v>564.77388026686003</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15">
       <c r="D25" s="5" t="s">
         <v>46</v>
       </c>
@@ -10320,7 +10663,7 @@
         <v>0.88806155471980674</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="19.5">
       <c r="D26" s="6" t="s">
         <v>95</v>
       </c>
@@ -10336,7 +10679,7 @@
         <v>0.63437824048925051</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="D27" s="8" t="s">
         <v>14</v>
       </c>
@@ -10352,7 +10695,7 @@
         <v>0.24520209543163818</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="D28" s="8" t="s">
         <v>15</v>
       </c>
@@ -10368,7 +10711,7 @@
         <v>0.73783006299298903</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="19.5">
       <c r="A29" s="2"/>
       <c r="D29" s="5" t="s">
         <v>47</v>
@@ -10385,7 +10728,7 @@
         <v>564.77388026686003</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="19.5">
       <c r="D30" s="5"/>
       <c r="G30" s="10" t="s">
         <v>75</v>
@@ -10395,7 +10738,7 @@
         <v>-55.878551290775121</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="19.5">
       <c r="D31" s="2" t="s">
         <v>101</v>
       </c>
@@ -10407,7 +10750,7 @@
         <v>235.47237166524198</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="19.5">
       <c r="D32" s="5" t="s">
         <v>38</v>
       </c>
@@ -10423,7 +10766,7 @@
         <v>138.48373888649121</v>
       </c>
     </row>
-    <row r="33" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:9" ht="19.5">
       <c r="D33" s="8" t="s">
         <v>41</v>
       </c>
@@ -10439,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:9" ht="19.5">
       <c r="D34" s="8" t="s">
         <v>42</v>
       </c>
@@ -10455,7 +10798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:9" ht="19.5">
       <c r="D35" s="8" t="s">
         <v>43</v>
       </c>
@@ -10471,7 +10814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:9" ht="19.5">
       <c r="D36" s="5" t="s">
         <v>39</v>
       </c>
@@ -10488,7 +10831,7 @@
       </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:9" ht="19.5">
       <c r="D37" s="5" t="s">
         <v>40</v>
       </c>
@@ -10504,7 +10847,7 @@
         <v>329.30150860161802</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:9">
       <c r="D39" s="2" t="s">
         <v>280</v>
       </c>
@@ -10512,7 +10855,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:9" ht="19.5">
       <c r="D40" s="5" t="s">
         <v>93</v>
       </c>
@@ -10528,7 +10871,7 @@
         <v>-47.299687226477381</v>
       </c>
     </row>
-    <row r="41" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:9" ht="19.5">
       <c r="D41" s="5" t="s">
         <v>44</v>
       </c>
@@ -10544,7 +10887,7 @@
         <v>432.75811100035367</v>
       </c>
     </row>
-    <row r="42" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:9" ht="19.5">
       <c r="D42" s="5" t="s">
         <v>45</v>
       </c>
@@ -10553,7 +10896,7 @@
         <v>17.392421142920494</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:9">
       <c r="D43" s="5" t="s">
         <v>59</v>
       </c>
@@ -10562,7 +10905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:9">
       <c r="D44" s="25" t="s">
         <v>59</v>
       </c>
@@ -10571,15 +10914,15 @@
         <v>1.1169483811971006</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:9">
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:9">
       <c r="D46" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:9">
       <c r="D47" s="5" t="s">
         <v>28</v>
       </c>
@@ -10588,15 +10931,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:9">
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:5">
       <c r="D49" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="4:5" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:5" ht="19.5">
       <c r="D50" s="5" t="s">
         <v>79</v>
       </c>
@@ -10605,7 +10948,7 @@
         <v>0.70796460176991149</v>
       </c>
     </row>
-    <row r="51" spans="4:5" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:5" ht="19.5">
       <c r="D51" s="5" t="s">
         <v>80</v>
       </c>
@@ -10614,7 +10957,7 @@
         <v>3.2575707396497604</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:5">
       <c r="D52" s="5" t="s">
         <v>81</v>
       </c>
@@ -10623,7 +10966,7 @@
         <v>2.5496061378798487</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:5">
       <c r="D53" s="5" t="s">
         <v>29</v>
       </c>
@@ -10649,7 +10992,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="7" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" style="16" bestFit="1" customWidth="1"/>
@@ -10665,12 +11008,12 @@
     <col min="12" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1">
       <c r="A2" s="23" t="s">
         <v>103</v>
       </c>
@@ -10684,7 +11027,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="19.5">
       <c r="F3" s="16" t="s">
         <v>114</v>
       </c>
@@ -10700,7 +11043,7 @@
         <v>66.729063982656967</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="19.5">
       <c r="A4" s="18" t="s">
         <v>102</v>
       </c>
@@ -10719,7 +11062,7 @@
         <v>85.767403975025871</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="19.5">
       <c r="A5" s="26" t="s">
         <v>152</v>
       </c>
@@ -10740,7 +11083,7 @@
         <v>-9.519169996184452</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="19.5">
       <c r="A6" s="16" t="s">
         <v>112</v>
       </c>
@@ -10765,7 +11108,7 @@
         <v>2.1247551161315155</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="19.5">
       <c r="A7" s="16" t="s">
         <v>113</v>
       </c>
@@ -10794,7 +11137,7 @@
         <v>213.1236784003024</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="19.5">
       <c r="A8" s="25" t="s">
         <v>35</v>
       </c>
@@ -10816,7 +11159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="19.5">
       <c r="A9" s="16" t="s">
         <v>111</v>
       </c>
@@ -10841,7 +11184,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="19.5">
       <c r="F10" s="28" t="s">
         <v>126</v>
       </c>
@@ -10857,7 +11200,7 @@
         <v>637.84988533939668</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="19.5">
       <c r="A11" s="16" t="s">
         <v>107</v>
       </c>
@@ -10880,7 +11223,7 @@
         <v>162.88360672329438</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.5">
       <c r="A12" s="16" t="s">
         <v>108</v>
       </c>
@@ -10895,7 +11238,7 @@
         <v>12.529728160000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="19.5">
       <c r="A13" s="16" t="s">
         <v>109</v>
       </c>
@@ -10913,7 +11256,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="19.5">
       <c r="A14" s="25" t="s">
         <v>19</v>
       </c>
@@ -10935,7 +11278,7 @@
         <v>31.967239236842886</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="19.5">
       <c r="A15" s="16" t="s">
         <v>110</v>
       </c>
@@ -10950,7 +11293,7 @@
         <v>50.174601340257361</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="F16" s="34" t="s">
         <v>157</v>
       </c>
@@ -10962,7 +11305,7 @@
         <v>69.219329019872987</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="19.5">
       <c r="A17" s="26" t="s">
         <v>153</v>
       </c>
@@ -10982,7 +11325,7 @@
         <v>29.098722811256216</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="19.5">
       <c r="A18" s="30" t="s">
         <v>19</v>
       </c>
@@ -11004,7 +11347,7 @@
         <v>7.4307529584595597</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="19.5">
       <c r="A19" s="30" t="s">
         <v>20</v>
       </c>
@@ -11019,7 +11362,7 @@
         <v>47.096829082323637</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="18" customHeight="1">
       <c r="A20" s="30" t="s">
         <v>115</v>
       </c>
@@ -11036,7 +11379,7 @@
         <v>331.03935856311773</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="20.25">
       <c r="A21" s="30" t="s">
         <v>34</v>
       </c>
@@ -11058,7 +11401,7 @@
         <v>35.752250724816719</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="19.5">
       <c r="A22" s="30" t="s">
         <v>116</v>
       </c>
@@ -11073,7 +11416,7 @@
         <v>535.69964553842544</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="30" t="s">
         <v>90</v>
       </c>
@@ -11081,7 +11424,7 @@
         <v>0.14858605</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="30" t="s">
         <v>117</v>
       </c>
@@ -11089,7 +11432,7 @@
         <v>3.0599924000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="30" t="s">
         <v>118</v>
       </c>
@@ -11097,7 +11440,7 @@
         <v>1.5715751E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="30" t="s">
         <v>119</v>
       </c>
@@ -11105,7 +11448,7 @@
         <v>4.9165000000000005E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="30" t="s">
         <v>120</v>
       </c>
@@ -11113,7 +11456,7 @@
         <v>4.7187999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="30" t="s">
         <v>121</v>
       </c>
@@ -11134,11 +11477,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="36" bestFit="1" customWidth="1"/>
@@ -11154,7 +11497,7 @@
     <col min="12" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="35" t="s">
         <v>11</v>
       </c>
@@ -11168,7 +11511,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="19.5">
       <c r="A2" s="36" t="s">
         <v>180</v>
       </c>
@@ -11196,7 +11539,7 @@
         <v>20.841853155179276</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="19.5">
       <c r="A3" s="36" t="s">
         <v>172</v>
       </c>
@@ -11217,7 +11560,7 @@
         <v>143.78761860482092</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="41" t="s">
         <v>285</v>
       </c>
@@ -11239,7 +11582,7 @@
         <v>70.431610545879821</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="19.5">
       <c r="A5" s="36" t="s">
         <v>176</v>
       </c>
@@ -11261,7 +11604,7 @@
         <v>0.83698748524798694</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="19.5">
       <c r="A6" s="36" t="s">
         <v>177</v>
       </c>
@@ -11283,7 +11626,7 @@
         <v>0.92015144235281654</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="19.5">
       <c r="A7" s="36" t="s">
         <v>179</v>
       </c>
@@ -11298,7 +11641,7 @@
         <v>324.56238840270163</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="19.5">
       <c r="A8" s="36" t="s">
         <v>178</v>
       </c>
@@ -11316,7 +11659,7 @@
         <v>5.1010779131779911</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="19.5">
       <c r="D9" s="16" t="s">
         <v>227</v>
       </c>
@@ -11332,7 +11675,7 @@
         <v>63.626236243958488</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="35" t="s">
         <v>161</v>
       </c>
@@ -11351,7 +11694,7 @@
         <v>241.03799495377152</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="19.5">
       <c r="A11" s="39" t="s">
         <v>35</v>
       </c>
@@ -11373,7 +11716,7 @@
         <v>3.6140866452165632</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="19.5">
       <c r="A12" s="38" t="s">
         <v>181</v>
       </c>
@@ -11395,7 +11738,7 @@
         <v>66.69402773527807</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="12.75">
       <c r="A13" s="39" t="s">
         <v>173</v>
       </c>
@@ -11417,7 +11760,7 @@
         <v>114.62296928655999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="19.5">
       <c r="A15" s="35" t="s">
         <v>26</v>
       </c>
@@ -11432,7 +11775,7 @@
         <v>1.5459543046609654</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="19.5">
       <c r="A16" s="39" t="s">
         <v>117</v>
       </c>
@@ -11447,7 +11790,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="36" t="s">
         <v>121</v>
       </c>
@@ -11469,7 +11812,7 @@
         <v>262.24779608752692</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="13.5">
       <c r="A18" s="24" t="s">
         <v>187</v>
       </c>
@@ -11491,7 +11834,7 @@
         <v>4.6518542927387809</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="19.5">
       <c r="A19" s="36" t="s">
         <v>196</v>
       </c>
@@ -11514,7 +11857,7 @@
         <v>56.374894737540984</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="19.5">
       <c r="D20" s="16" t="s">
         <v>191</v>
       </c>
@@ -11529,7 +11872,7 @@
         <v>210.72309028590382</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="18">
       <c r="G21" s="16" t="s">
         <v>216</v>
       </c>
@@ -11538,12 +11881,12 @@
         <v>0.61825845560656378</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="D22" s="18" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="D23" s="28" t="s">
         <v>14</v>
       </c>
@@ -11559,7 +11902,7 @@
         <v>370.3112387132316</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="D24" s="28" t="s">
         <v>15</v>
       </c>
@@ -11575,7 +11918,7 @@
         <v>6.3574846306995756</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="19.5">
       <c r="D25" s="28" t="s">
         <v>16</v>
       </c>
@@ -11591,7 +11934,7 @@
         <v>58.24807454901903</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="19.5">
       <c r="D26" s="16" t="s">
         <v>163</v>
       </c>
@@ -11606,7 +11949,7 @@
         <v>212.87227476013365</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="18">
       <c r="G27" s="16" t="s">
         <v>217</v>
       </c>
@@ -11615,7 +11958,7 @@
         <v>0.62456413132557553</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="D28" s="28" t="s">
         <v>17</v>
       </c>
@@ -11624,7 +11967,7 @@
         <v>7.004341650396678</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="18">
       <c r="D29" s="28" t="s">
         <v>69</v>
       </c>
@@ -11640,7 +11983,7 @@
         <v>1.2428225869321392</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="D30" s="28" t="s">
         <v>192</v>
       </c>
@@ -11649,7 +11992,7 @@
         <v>0.58407398499448182</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="D31" s="16" t="s">
         <v>164</v>
       </c>
@@ -11661,7 +12004,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="G32" s="28" t="s">
         <v>220</v>
       </c>
@@ -11670,7 +12013,7 @@
         <v>4703.953148743014</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:8">
       <c r="D33" s="28" t="s">
         <v>193</v>
       </c>
@@ -11686,7 +12029,7 @@
         <v>70.431610545879806</v>
       </c>
     </row>
-    <row r="34" spans="4:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:8" ht="19.5">
       <c r="D34" s="28" t="s">
         <v>194</v>
       </c>
@@ -11702,7 +12045,7 @@
         <v>66.787527820037781</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:8">
       <c r="D35" s="16" t="s">
         <v>165</v>
       </c>
@@ -11712,7 +12055,7 @@
       </c>
       <c r="G35" s="28"/>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:8">
       <c r="G36" s="28" t="s">
         <v>223</v>
       </c>
@@ -11721,7 +12064,7 @@
         <v>28551.004226149325</v>
       </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:8">
       <c r="D37" s="16" t="s">
         <v>167</v>
       </c>
@@ -11737,7 +12080,7 @@
         <v>143.78761860482092</v>
       </c>
     </row>
-    <row r="38" spans="4:8" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:8" ht="19.5">
       <c r="D38" s="16" t="s">
         <v>168</v>
       </c>
@@ -11753,7 +12096,7 @@
         <v>198.56371851193637</v>
       </c>
     </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:8">
       <c r="D39" s="16" t="s">
         <v>169</v>
       </c>
@@ -11762,7 +12105,7 @@
         <v>157.51292179721099</v>
       </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:8">
       <c r="D41" s="16" t="s">
         <v>195</v>
       </c>
@@ -11772,7 +12115,7 @@
       </c>
       <c r="G41" s="28"/>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:8">
       <c r="D42" s="16" t="s">
         <v>170</v>
       </c>
@@ -11790,17 +12133,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="C1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView showFormulas="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" style="16" customWidth="1"/>
@@ -11820,7 +12163,7 @@
     <col min="17" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
@@ -11840,7 +12183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="42" t="s">
         <v>251</v>
       </c>
@@ -11869,7 +12212,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.6" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>264</v>
       </c>
@@ -11892,7 +12235,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="19.5">
       <c r="D4" s="18" t="s">
         <v>233</v>
       </c>
@@ -11909,7 +12252,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="19.5">
       <c r="D5" s="16" t="s">
         <v>245</v>
       </c>
@@ -11933,7 +12276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="19.5">
       <c r="D6" s="16" t="s">
         <v>276</v>
       </c>
@@ -11957,7 +12300,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="G7" s="42" t="s">
         <v>269</v>
       </c>
@@ -11974,7 +12317,7 @@
         <v>123.91600000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.6" customHeight="1">
       <c r="D8" s="18" t="s">
         <v>234</v>
       </c>
@@ -11991,7 +12334,7 @@
         <v>173.49731044525021</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="D9" s="42" t="s">
         <v>274</v>
       </c>
@@ -12015,7 +12358,7 @@
         <v>0.33364867393317349</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="17.25" customHeight="1">
       <c r="D10" s="42" t="s">
         <v>243</v>
       </c>
@@ -12039,7 +12382,7 @@
         <v>39.476405351909499</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="16.5" customHeight="1">
       <c r="D11" s="42" t="s">
         <v>242</v>
       </c>
@@ -12063,7 +12406,7 @@
         <v>0.28175663033413251</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1">
       <c r="D12" s="42" t="s">
         <v>241</v>
       </c>
@@ -12087,7 +12430,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1">
       <c r="D13" s="16" t="s">
         <v>244</v>
       </c>
@@ -12111,7 +12454,7 @@
         <v>1.0217566303341326</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="19.5">
       <c r="D14" s="16" t="s">
         <v>277</v>
       </c>
@@ -12131,7 +12474,7 @@
         <v>22.32620489520508</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1">
       <c r="G15" s="44" t="s">
         <v>265</v>
       </c>
@@ -12148,7 +12491,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="D16" s="18" t="s">
         <v>263</v>
       </c>
@@ -12168,7 +12511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:10" ht="15.75" customHeight="1">
       <c r="D17" s="16" t="s">
         <v>273</v>
       </c>
@@ -12184,7 +12527,7 @@
         <v>0.46363899557670363</v>
       </c>
     </row>
-    <row r="18" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:10" ht="15" customHeight="1">
       <c r="G18" s="42" t="s">
         <v>246</v>
       </c>
@@ -12201,7 +12544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:10" ht="19.5">
       <c r="G19" s="42" t="s">
         <v>247</v>
       </c>
@@ -12218,7 +12561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:10" ht="19.5" customHeight="1">
       <c r="G20" s="16" t="s">
         <v>278</v>
       </c>
@@ -12235,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:10" ht="19.5">
       <c r="G21" s="16" t="s">
         <v>249</v>
       </c>
@@ -12252,7 +12595,7 @@
         <v>12.537936938311407</v>
       </c>
     </row>
-    <row r="22" spans="4:10" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:10" ht="19.5">
       <c r="G22" s="29" t="s">
         <v>250</v>
       </c>
@@ -12269,128 +12612,129 @@
         <v>-9.788267956893673</v>
       </c>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:10">
       <c r="G32" s="43"/>
       <c r="H32" s="43"/>
       <c r="I32" s="43"/>
       <c r="J32" s="43"/>
     </row>
-    <row r="42" spans="4:4" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="4:4" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="4:4" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="4:4" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="4:4" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="4:4" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="4:4" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" s="43" customFormat="1"/>
+    <row r="43" spans="4:4" s="43" customFormat="1"/>
+    <row r="44" spans="4:4" s="43" customFormat="1"/>
+    <row r="45" spans="4:4" s="43" customFormat="1"/>
+    <row r="46" spans="4:4" s="43" customFormat="1"/>
+    <row r="47" spans="4:4" s="43" customFormat="1"/>
+    <row r="48" spans="4:4" s="43" customFormat="1">
       <c r="D48" s="45"/>
     </row>
-    <row r="49" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="43" customFormat="1"/>
+    <row r="50" s="43" customFormat="1"/>
+    <row r="51" s="43" customFormat="1"/>
+    <row r="52" s="43" customFormat="1"/>
+    <row r="53" s="43" customFormat="1"/>
+    <row r="54" s="43" customFormat="1"/>
+    <row r="55" s="43" customFormat="1"/>
+    <row r="56" s="43" customFormat="1"/>
+    <row r="57" s="43" customFormat="1"/>
+    <row r="58" s="43" customFormat="1"/>
+    <row r="59" s="43" customFormat="1"/>
+    <row r="60" s="43" customFormat="1"/>
+    <row r="61" s="43" customFormat="1"/>
+    <row r="62" s="43" customFormat="1"/>
+    <row r="63" s="43" customFormat="1"/>
+    <row r="64" s="43" customFormat="1"/>
+    <row r="65" s="43" customFormat="1"/>
+    <row r="66" s="43" customFormat="1"/>
+    <row r="67" s="43" customFormat="1"/>
+    <row r="68" s="43" customFormat="1"/>
+    <row r="69" s="43" customFormat="1"/>
+    <row r="70" s="43" customFormat="1"/>
+    <row r="71" s="43" customFormat="1"/>
+    <row r="72" s="43" customFormat="1"/>
+    <row r="73" s="43" customFormat="1"/>
+    <row r="74" s="43" customFormat="1"/>
+    <row r="75" s="43" customFormat="1"/>
+    <row r="76" s="43" customFormat="1"/>
+    <row r="77" s="43" customFormat="1"/>
+    <row r="78" s="43" customFormat="1"/>
+    <row r="79" s="43" customFormat="1"/>
+    <row r="80" s="43" customFormat="1"/>
+    <row r="81" s="43" customFormat="1"/>
+    <row r="82" s="43" customFormat="1"/>
+    <row r="83" s="43" customFormat="1"/>
+    <row r="84" s="43" customFormat="1"/>
+    <row r="85" s="43" customFormat="1"/>
+    <row r="86" s="43" customFormat="1"/>
+    <row r="87" s="43" customFormat="1"/>
+    <row r="88" s="43" customFormat="1"/>
+    <row r="89" s="43" customFormat="1"/>
+    <row r="90" s="43" customFormat="1"/>
+    <row r="91" s="43" customFormat="1"/>
+    <row r="92" s="43" customFormat="1"/>
+    <row r="93" s="43" customFormat="1"/>
+    <row r="94" s="43" customFormat="1"/>
+    <row r="95" s="43" customFormat="1"/>
+    <row r="96" s="43" customFormat="1"/>
+    <row r="97" s="43" customFormat="1"/>
+    <row r="98" s="43" customFormat="1"/>
+    <row r="99" s="43" customFormat="1"/>
+    <row r="100" s="43" customFormat="1"/>
+    <row r="101" s="43" customFormat="1"/>
+    <row r="102" s="43" customFormat="1"/>
+    <row r="103" s="43" customFormat="1"/>
+    <row r="104" s="43" customFormat="1"/>
+    <row r="105" s="43" customFormat="1"/>
+    <row r="106" s="43" customFormat="1"/>
+    <row r="107" s="43" customFormat="1"/>
+    <row r="108" s="43" customFormat="1"/>
+    <row r="109" s="43" customFormat="1"/>
+    <row r="110" s="43" customFormat="1"/>
+    <row r="111" s="43" customFormat="1"/>
+    <row r="112" s="43" customFormat="1"/>
+    <row r="113" s="43" customFormat="1"/>
+    <row r="114" s="43" customFormat="1"/>
+    <row r="115" s="43" customFormat="1"/>
+    <row r="116" s="43" customFormat="1"/>
+    <row r="117" s="43" customFormat="1"/>
+    <row r="118" s="43" customFormat="1"/>
+    <row r="119" s="43" customFormat="1"/>
+    <row r="120" s="43" customFormat="1"/>
+    <row r="121" s="43" customFormat="1"/>
+    <row r="122" s="43" customFormat="1"/>
+    <row r="123" s="43" customFormat="1"/>
+    <row r="124" s="43" customFormat="1"/>
+    <row r="125" s="43" customFormat="1"/>
+    <row r="126" s="43" customFormat="1"/>
+    <row r="127" s="43" customFormat="1"/>
+    <row r="128" s="43" customFormat="1"/>
+    <row r="129" s="43" customFormat="1"/>
+    <row r="130" s="43" customFormat="1"/>
+    <row r="131" s="43" customFormat="1"/>
+    <row r="132" s="43" customFormat="1"/>
+    <row r="133" s="43" customFormat="1"/>
+    <row r="134" s="43" customFormat="1"/>
+    <row r="135" s="43" customFormat="1"/>
+    <row r="136" s="43" customFormat="1"/>
+    <row r="137" s="43" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="22"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="16" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="16" customWidth="1"/>
@@ -12401,7 +12745,7 @@
     <col min="7" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="18" t="s">
         <v>229</v>
       </c>
@@ -12409,7 +12753,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="20.25">
       <c r="A3" s="46" t="s">
         <v>258</v>
       </c>
@@ -12423,7 +12767,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="16">
         <v>0.01</v>
       </c>
@@ -12437,7 +12781,7 @@
         <v>4.75E-28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="16">
         <v>0.12</v>
       </c>
@@ -12451,7 +12795,7 @@
         <v>3.8999999999999998E-14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="16">
         <v>0.13</v>
       </c>
@@ -12466,7 +12810,7 @@
       </c>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="16">
         <v>0.17</v>
       </c>
@@ -12480,7 +12824,7 @@
         <v>1.42E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="16">
         <v>0.19</v>
       </c>
@@ -12494,7 +12838,7 @@
         <v>2.48E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="16">
         <v>0.2</v>
       </c>
@@ -12508,7 +12852,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="16">
         <v>0.23</v>
       </c>
@@ -12522,7 +12866,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="16">
         <v>0.28000000000000003</v>
       </c>
@@ -12536,7 +12880,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="16">
         <v>0.28999999999999998</v>
       </c>
@@ -12550,7 +12894,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="16">
         <v>0.39</v>
       </c>
@@ -12558,10 +12902,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="18"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="18"/>
     </row>
   </sheetData>
@@ -12569,19 +12913,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
@@ -12597,7 +12942,7 @@
     <col min="13" max="15" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -12606,7 +12951,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -12645,7 +12990,7 @@
         <v>17.234070530842416</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="D3" s="5" t="s">
         <v>88</v>
       </c>
@@ -12675,7 +13020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -12707,7 +13052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="5" t="s">
         <v>84</v>
       </c>
@@ -12729,7 +13074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="5" t="s">
         <v>85</v>
       </c>
@@ -12738,7 +13083,7 @@
       </c>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="5" t="s">
         <v>86</v>
       </c>
@@ -12746,7 +13091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
         <v>87</v>
       </c>
@@ -12755,12 +13100,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:9">
       <c r="G20" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:9">
       <c r="G21" s="32" t="s">
         <v>254</v>
       </c>
@@ -12776,39 +13121,44 @@
   </sheetData>
   <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="7" width="10.28515625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="14.25">
       <c r="A2" s="13" t="s">
         <v>88</v>
       </c>
@@ -12832,8 +13182,12 @@
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <f>doy</f>
         <v>35</v>
@@ -12859,7 +13213,7 @@
         <v>312.91852504085409</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="C4" t="b">
         <v>0</v>
       </c>
@@ -12873,7 +13227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -12898,16 +13252,35 @@
         <v>290</v>
       </c>
       <c r="L7" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="M7" s="58" t="s">
+      <c r="Q7" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="R7" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="T7" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="U7" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -12945,20 +13318,50 @@
         <f>I8-G8</f>
         <v>3.1754874652989429E-2</v>
       </c>
-      <c r="L8" s="70">
+      <c r="L8" s="15">
+        <f>ABS(K8)</f>
+        <v>3.1754874652989429E-2</v>
+      </c>
+      <c r="M8" s="15">
+        <f>ABS(L8/I8)</f>
+        <v>1.3323811872945938E-4</v>
+      </c>
+      <c r="N8" s="77">
+        <f>K8/H8</f>
+        <v>1.3323811872945938E-3</v>
+      </c>
+      <c r="O8" s="15">
+        <f>N8^2</f>
+        <v>1.7752396282565514E-6</v>
+      </c>
+      <c r="P8" s="70">
         <f>K8^2</f>
         <v>1.0083720642270705E-3</v>
       </c>
-      <c r="M8">
-        <f>SQRT(SUM(L8:L42)/35)</f>
+      <c r="Q8" s="70">
+        <f>SUM(L8:L42)/35</f>
+        <v>23.855190324097673</v>
+      </c>
+      <c r="R8">
+        <f>SQRT(SUM(P8:P42)/35)</f>
         <v>41.582833277579688</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="5">
+        <f>SUM(M8:M42)*(100/35)</f>
+        <v>7.3381752782100271</v>
+      </c>
+      <c r="T8" s="9">
+        <f>SQRT(SUM(O8:O42)*(1/35))</f>
+        <v>1.0963198168730839</v>
+      </c>
+      <c r="U8" s="3">
+        <f>CORREL(B8:B42,H8:H42)</f>
+        <v>0.5300214681238139</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -12978,7 +13381,7 @@
         <v>238.12538940574944</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" ref="G9:G42" si="0">F9</f>
+        <f t="shared" ref="G8:G42" si="0">F9</f>
         <v>238.12538940574944</v>
       </c>
       <c r="H9" s="57">
@@ -12996,16 +13399,33 @@
         <f t="shared" ref="K9:K42" si="2">I9-G9</f>
         <v>0.26578706483724091</v>
       </c>
-      <c r="L9" s="70">
-        <f t="shared" ref="L9:L42" si="3">K9^2</f>
+      <c r="L9" s="15">
+        <f t="shared" ref="L9:L42" si="3">ABS(K9)</f>
+        <v>0.26578706483724091</v>
+      </c>
+      <c r="M9" s="15">
+        <f t="shared" ref="M9:M42" si="4">ABS(L9/I9)</f>
+        <v>1.1149198924735974E-3</v>
+      </c>
+      <c r="N9" s="77">
+        <f t="shared" ref="N9:N42" si="5">K9/H9</f>
+        <v>1.1149198924735974E-2</v>
+      </c>
+      <c r="O9" s="15">
+        <f t="shared" ref="O9:O42" si="6">N9^2</f>
+        <v>1.2430463666333381E-4</v>
+      </c>
+      <c r="P9" s="70">
+        <f t="shared" ref="P9:P42" si="7">K9^2</f>
         <v>7.0642763834795702E-2</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q9" s="70"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -13032,7 +13452,7 @@
         <v>23.929065573770334</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" ref="I10:I35" si="4">H10*10</f>
+        <f t="shared" ref="I10:I35" si="8">H10*10</f>
         <v>239.29065573770333</v>
       </c>
       <c r="J10" s="59">
@@ -13043,16 +13463,33 @@
         <f t="shared" si="2"/>
         <v>0.89633659543645194</v>
       </c>
-      <c r="L10" s="70">
+      <c r="L10" s="15">
         <f t="shared" si="3"/>
+        <v>0.89633659543645194</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" si="4"/>
+        <v>3.7458069253609493E-3</v>
+      </c>
+      <c r="N10" s="77">
+        <f t="shared" si="5"/>
+        <v>3.7458069253609491E-2</v>
+      </c>
+      <c r="O10" s="15">
+        <f t="shared" si="6"/>
+        <v>1.4031069522082047E-3</v>
+      </c>
+      <c r="P10" s="70">
+        <f t="shared" si="7"/>
         <v>0.80341929231860976</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q10" s="70"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -13079,7 +13516,7 @@
         <v>23.482235772357964</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>234.82235772357964</v>
       </c>
       <c r="J11" s="59">
@@ -13090,16 +13527,33 @@
         <f t="shared" si="2"/>
         <v>-2.968996799227881</v>
       </c>
-      <c r="L11" s="70">
+      <c r="L11" s="15">
         <f t="shared" si="3"/>
+        <v>2.968996799227881</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="4"/>
+        <v>1.2643586530729011E-2</v>
+      </c>
+      <c r="N11" s="77">
+        <f t="shared" si="5"/>
+        <v>-0.12643586530729012</v>
+      </c>
+      <c r="O11" s="15">
+        <f t="shared" si="6"/>
+        <v>1.598602803600321E-2</v>
+      </c>
+      <c r="P11" s="70">
+        <f t="shared" si="7"/>
         <v>8.8149419938254017</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q11" s="70"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -13126,7 +13580,7 @@
         <v>23.050303030303041</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>230.50303030303041</v>
       </c>
       <c r="J12" s="59">
@@ -13137,16 +13591,33 @@
         <f t="shared" si="2"/>
         <v>-6.6348202476171423</v>
       </c>
-      <c r="L12" s="70">
+      <c r="L12" s="15">
         <f t="shared" si="3"/>
+        <v>6.6348202476171423</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="4"/>
+        <v>2.8784091206500353E-2</v>
+      </c>
+      <c r="N12" s="77">
+        <f t="shared" si="5"/>
+        <v>-0.28784091206500356</v>
+      </c>
+      <c r="O12" s="15">
+        <f t="shared" si="6"/>
+        <v>8.2852390658413114E-2</v>
+      </c>
+      <c r="P12" s="70">
+        <f t="shared" si="7"/>
         <v>44.020839718190395</v>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q12" s="70"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="3">
         <v>5</v>
       </c>
@@ -13173,7 +13644,7 @@
         <v>22.654267015706743</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>226.54267015706745</v>
       </c>
       <c r="J13" s="59">
@@ -13184,16 +13655,33 @@
         <f t="shared" si="2"/>
         <v>-10.014530025771592</v>
       </c>
-      <c r="L13" s="70">
+      <c r="L13" s="15">
         <f t="shared" si="3"/>
+        <v>10.014530025771592</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" si="4"/>
+        <v>4.4205932678502813E-2</v>
+      </c>
+      <c r="N13" s="77">
+        <f t="shared" si="5"/>
+        <v>-0.44205932678502813</v>
+      </c>
+      <c r="O13" s="15">
+        <f t="shared" si="6"/>
+        <v>0.19541644839763228</v>
+      </c>
+      <c r="P13" s="70">
+        <f t="shared" si="7"/>
         <v>100.29081163708075</v>
       </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q13" s="70"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="40">
         <v>6</v>
       </c>
@@ -13220,7 +13708,7 @@
         <v>27.313671444322264</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>273.13671444322262</v>
       </c>
       <c r="J14" s="59">
@@ -13231,16 +13719,33 @@
         <f t="shared" si="2"/>
         <v>20.168623074762024</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="15">
         <f t="shared" si="3"/>
+        <v>20.168623074762024</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="4"/>
+        <v>7.384076181730051E-2</v>
+      </c>
+      <c r="N14" s="77">
+        <f t="shared" si="5"/>
+        <v>0.73840761817300504</v>
+      </c>
+      <c r="O14" s="15">
+        <f t="shared" si="6"/>
+        <v>0.54524581057593036</v>
+      </c>
+      <c r="P14" s="70">
+        <f t="shared" si="7"/>
         <v>406.77335673182318</v>
       </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q14" s="70"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="40">
         <v>7</v>
       </c>
@@ -13267,7 +13772,7 @@
         <v>28.196189710610948</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>281.96189710610946</v>
       </c>
       <c r="J15" s="59">
@@ -13278,16 +13783,33 @@
         <f t="shared" si="2"/>
         <v>23.571574774212138</v>
       </c>
-      <c r="L15" s="70">
+      <c r="L15" s="15">
         <f t="shared" si="3"/>
+        <v>23.571574774212138</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="4"/>
+        <v>8.359844013016253E-2</v>
+      </c>
+      <c r="N15" s="77">
+        <f t="shared" si="5"/>
+        <v>0.83598440130162521</v>
+      </c>
+      <c r="O15" s="15">
+        <f t="shared" si="6"/>
+        <v>0.6988699192196367</v>
+      </c>
+      <c r="P15" s="70">
+        <f t="shared" si="7"/>
         <v>555.61913733627398</v>
       </c>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q15" s="70"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="3">
         <v>8</v>
       </c>
@@ -13314,7 +13836,7 @@
         <v>26.799947575360278</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>267.99947575360278</v>
       </c>
       <c r="J16" s="59">
@@ -13325,16 +13847,33 @@
         <f t="shared" si="2"/>
         <v>10.923680480142934</v>
       </c>
-      <c r="L16" s="70">
+      <c r="L16" s="15">
         <f t="shared" si="3"/>
+        <v>10.923680480142934</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" si="4"/>
+        <v>4.0760081524137404E-2</v>
+      </c>
+      <c r="N16" s="77">
+        <f t="shared" si="5"/>
+        <v>0.40760081524137404</v>
+      </c>
+      <c r="O16" s="15">
+        <f t="shared" si="6"/>
+        <v>0.16613842458543274</v>
+      </c>
+      <c r="P16" s="70">
+        <f t="shared" si="7"/>
         <v>119.32679523225576</v>
       </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q16" s="70"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="3">
         <v>9</v>
       </c>
@@ -13361,7 +13900,7 @@
         <v>25.104677419354772</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>251.04677419354772</v>
       </c>
       <c r="J17" s="59">
@@ -13372,16 +13911,33 @@
         <f t="shared" si="2"/>
         <v>-4.9187593955339821</v>
       </c>
-      <c r="L17" s="70">
+      <c r="L17" s="15">
         <f t="shared" si="3"/>
+        <v>4.9187593955339821</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="4"/>
+        <v>1.9592999795893819E-2</v>
+      </c>
+      <c r="N17" s="77">
+        <f t="shared" si="5"/>
+        <v>-0.1959299979589382</v>
+      </c>
+      <c r="O17" s="15">
+        <f t="shared" si="6"/>
+        <v>3.838856410018953E-2</v>
+      </c>
+      <c r="P17" s="70">
+        <f t="shared" si="7"/>
         <v>24.194193991153824</v>
       </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q17" s="70"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="3">
         <v>10</v>
       </c>
@@ -13408,7 +13964,7 @@
         <v>27.897916181606572</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>278.9791618160657</v>
       </c>
       <c r="J18" s="59">
@@ -13419,16 +13975,33 @@
         <f t="shared" si="2"/>
         <v>24.077678611204249</v>
       </c>
-      <c r="L18" s="70">
+      <c r="L18" s="15">
         <f t="shared" si="3"/>
+        <v>24.077678611204249</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="4"/>
+        <v>8.6306369459518806E-2</v>
+      </c>
+      <c r="N18" s="77">
+        <f t="shared" si="5"/>
+        <v>0.86306369459518806</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="6"/>
+        <v>0.7448789409282961</v>
+      </c>
+      <c r="P18" s="70">
+        <f t="shared" si="7"/>
         <v>579.73460730444253</v>
       </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q18" s="70"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="3">
         <v>11</v>
       </c>
@@ -13455,7 +14028,7 @@
         <v>32.029561830574458</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>320.2956183057446</v>
       </c>
       <c r="J19" s="59">
@@ -13466,12 +14039,29 @@
         <f t="shared" si="2"/>
         <v>-13.150658308828383</v>
       </c>
-      <c r="L19" s="70">
+      <c r="L19" s="15">
         <f t="shared" si="3"/>
+        <v>13.150658308828383</v>
+      </c>
+      <c r="M19" s="15">
+        <f t="shared" si="4"/>
+        <v>4.1057877651873333E-2</v>
+      </c>
+      <c r="N19" s="77">
+        <f t="shared" si="5"/>
+        <v>-0.41057877651873337</v>
+      </c>
+      <c r="O19" s="15">
+        <f t="shared" si="6"/>
+        <v>0.16857493172762</v>
+      </c>
+      <c r="P19" s="70">
+        <f t="shared" si="7"/>
         <v>172.93981395555699</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q19" s="70"/>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="40">
         <v>12</v>
       </c>
@@ -13498,7 +14088,7 @@
         <v>30.046079335793408</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>300.46079335793411</v>
       </c>
       <c r="J20" s="59">
@@ -13509,12 +14099,29 @@
         <f t="shared" si="2"/>
         <v>-18.835272070213136</v>
       </c>
-      <c r="L20" s="70">
+      <c r="L20" s="15">
         <f t="shared" si="3"/>
+        <v>18.835272070213136</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="4"/>
+        <v>6.2687952926274076E-2</v>
+      </c>
+      <c r="N20" s="77">
+        <f t="shared" si="5"/>
+        <v>-0.62687952926274082</v>
+      </c>
+      <c r="O20" s="15">
+        <f t="shared" si="6"/>
+        <v>0.39297794420867554</v>
+      </c>
+      <c r="P20" s="70">
+        <f t="shared" si="7"/>
         <v>354.76747395895103</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q20" s="70"/>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="3">
         <v>13</v>
       </c>
@@ -13541,7 +14148,7 @@
         <v>28.78559615384648</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>287.85596153846478</v>
       </c>
       <c r="J21" s="59">
@@ -13552,12 +14159,29 @@
         <f t="shared" si="2"/>
         <v>-15.979789672351842</v>
       </c>
-      <c r="L21" s="70">
+      <c r="L21" s="15">
         <f t="shared" si="3"/>
+        <v>15.979789672351842</v>
+      </c>
+      <c r="M21" s="15">
+        <f t="shared" si="4"/>
+        <v>5.5513144792787419E-2</v>
+      </c>
+      <c r="N21" s="77">
+        <f t="shared" si="5"/>
+        <v>-0.55513144792787417</v>
+      </c>
+      <c r="O21" s="15">
+        <f t="shared" si="6"/>
+        <v>0.30817092447849809</v>
+      </c>
+      <c r="P21" s="70">
+        <f t="shared" si="7"/>
         <v>255.35367797260258</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q21" s="70"/>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="3">
         <v>14</v>
       </c>
@@ -13584,7 +14208,7 @@
         <v>31.642643442622873</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>316.42643442622875</v>
       </c>
       <c r="J22" s="59">
@@ -13595,12 +14219,29 @@
         <f t="shared" si="2"/>
         <v>10.100705331139977</v>
       </c>
-      <c r="L22" s="70">
+      <c r="L22" s="15">
         <f t="shared" si="3"/>
+        <v>10.100705331139977</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" si="4"/>
+        <v>3.1921180509003402E-2</v>
+      </c>
+      <c r="N22" s="77">
+        <f t="shared" si="5"/>
+        <v>0.31921180509003405</v>
+      </c>
+      <c r="O22" s="15">
+        <f t="shared" si="6"/>
+        <v>0.10189617650883789</v>
+      </c>
+      <c r="P22" s="70">
+        <f t="shared" si="7"/>
         <v>102.02424818651956</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q22" s="70"/>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="3">
         <v>15</v>
       </c>
@@ -13627,7 +14268,7 @@
         <v>32.228456104944506</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>322.28456104944507</v>
       </c>
       <c r="J23" s="59">
@@ -13638,12 +14279,29 @@
         <f t="shared" si="2"/>
         <v>-28.728671908822491</v>
       </c>
-      <c r="L23" s="70">
+      <c r="L23" s="15">
         <f t="shared" si="3"/>
+        <v>28.728671908822491</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="4"/>
+        <v>8.9140701668346201E-2</v>
+      </c>
+      <c r="N23" s="77">
+        <f t="shared" si="5"/>
+        <v>-0.89140701668346201</v>
+      </c>
+      <c r="O23" s="15">
+        <f t="shared" si="6"/>
+        <v>0.7946064693925099</v>
+      </c>
+      <c r="P23" s="70">
+        <f t="shared" si="7"/>
         <v>825.33658964476649</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q23" s="70"/>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="3">
         <v>16</v>
       </c>
@@ -13670,7 +14328,7 @@
         <v>30.433051330798698</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>304.33051330798696</v>
       </c>
       <c r="J24" s="59">
@@ -13681,12 +14339,29 @@
         <f t="shared" si="2"/>
         <v>-14.239984743589957</v>
       </c>
-      <c r="L24" s="70">
+      <c r="L24" s="15">
         <f t="shared" si="3"/>
+        <v>14.239984743589957</v>
+      </c>
+      <c r="M24" s="15">
+        <f t="shared" si="4"/>
+        <v>4.6791183009568554E-2</v>
+      </c>
+      <c r="N24" s="77">
+        <f t="shared" si="5"/>
+        <v>-0.46791183009568554</v>
+      </c>
+      <c r="O24" s="15">
+        <f t="shared" si="6"/>
+        <v>0.2189414807434937</v>
+      </c>
+      <c r="P24" s="70">
+        <f t="shared" si="7"/>
         <v>202.77716549767473</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q24" s="70"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="40">
         <v>17</v>
       </c>
@@ -13713,7 +14388,7 @@
         <v>29.758445544554792</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>297.58445544554792</v>
       </c>
       <c r="J25" s="59">
@@ -13724,12 +14399,29 @@
         <f t="shared" si="2"/>
         <v>-2.9834819703494873</v>
       </c>
-      <c r="L25" s="70">
+      <c r="L25" s="15">
         <f t="shared" si="3"/>
+        <v>2.9834819703494873</v>
+      </c>
+      <c r="M25" s="15">
+        <f t="shared" si="4"/>
+        <v>1.0025664700404372E-2</v>
+      </c>
+      <c r="N25" s="77">
+        <f t="shared" si="5"/>
+        <v>-0.10025664700404371</v>
+      </c>
+      <c r="O25" s="15">
+        <f t="shared" si="6"/>
+        <v>1.0051395268493427E-2</v>
+      </c>
+      <c r="P25" s="70">
+        <f t="shared" si="7"/>
         <v>8.9011646674004581</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q25" s="70"/>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="40">
         <v>18</v>
       </c>
@@ -13756,7 +14448,7 @@
         <v>28.346896551724452</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>283.4689655172445</v>
       </c>
       <c r="J26" s="59">
@@ -13767,12 +14459,29 @@
         <f t="shared" si="2"/>
         <v>-14.256382023721642</v>
       </c>
-      <c r="L26" s="70">
+      <c r="L26" s="15">
         <f t="shared" si="3"/>
+        <v>14.256382023721642</v>
+      </c>
+      <c r="M26" s="15">
+        <f t="shared" si="4"/>
+        <v>5.0292567292888966E-2</v>
+      </c>
+      <c r="N26" s="77">
+        <f t="shared" si="5"/>
+        <v>-0.50292567292888968</v>
+      </c>
+      <c r="O26" s="15">
+        <f t="shared" si="6"/>
+        <v>0.25293423249097652</v>
+      </c>
+      <c r="P26" s="70">
+        <f t="shared" si="7"/>
         <v>203.24442840629357</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q26" s="70"/>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="40">
         <v>19</v>
       </c>
@@ -13799,7 +14508,7 @@
         <v>26.394255924170523</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>263.94255924170523</v>
       </c>
       <c r="J27" s="59">
@@ -13810,12 +14519,29 @@
         <f t="shared" si="2"/>
         <v>-28.12288999471707</v>
       </c>
-      <c r="L27" s="70">
+      <c r="L27" s="15">
         <f t="shared" si="3"/>
+        <v>28.12288999471707</v>
+      </c>
+      <c r="M27" s="15">
+        <f t="shared" si="4"/>
+        <v>0.10654928131148245</v>
+      </c>
+      <c r="N27" s="77">
+        <f t="shared" si="5"/>
+        <v>-1.0654928131148245</v>
+      </c>
+      <c r="O27" s="15">
+        <f t="shared" si="6"/>
+        <v>1.1352749347993423</v>
+      </c>
+      <c r="P27" s="70">
+        <f t="shared" si="7"/>
         <v>790.89694165495746</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q27" s="70"/>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="3">
         <v>20</v>
       </c>
@@ -13842,7 +14568,7 @@
         <v>24.990241312741233</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>249.90241312741233</v>
       </c>
       <c r="J28" s="59">
@@ -13853,12 +14579,29 @@
         <f t="shared" si="2"/>
         <v>-38.475885944685615</v>
       </c>
-      <c r="L28" s="70">
+      <c r="L28" s="15">
         <f t="shared" si="3"/>
+        <v>38.475885944685615</v>
+      </c>
+      <c r="M28" s="15">
+        <f t="shared" si="4"/>
+        <v>0.15396364310043195</v>
+      </c>
+      <c r="N28" s="77">
+        <f t="shared" si="5"/>
+        <v>-1.5396364310043196</v>
+      </c>
+      <c r="O28" s="15">
+        <f t="shared" si="6"/>
+        <v>2.3704803396757188</v>
+      </c>
+      <c r="P28" s="70">
+        <f t="shared" si="7"/>
         <v>1480.3937992284561</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q28" s="70"/>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="3">
         <v>21</v>
       </c>
@@ -13885,7 +14628,7 @@
         <v>25.10273866923826</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>251.02738669238261</v>
       </c>
       <c r="J29" s="59">
@@ -13896,12 +14639,29 @@
         <f t="shared" si="2"/>
         <v>-34.044505224323473</v>
       </c>
-      <c r="L29" s="70">
+      <c r="L29" s="15">
         <f t="shared" si="3"/>
+        <v>34.044505224323473</v>
+      </c>
+      <c r="M29" s="15">
+        <f t="shared" si="4"/>
+        <v>0.13562068136431166</v>
+      </c>
+      <c r="N29" s="77">
+        <f t="shared" si="5"/>
+        <v>-1.3562068136431167</v>
+      </c>
+      <c r="O29" s="15">
+        <f t="shared" si="6"/>
+        <v>1.8392969213720154</v>
+      </c>
+      <c r="P29" s="70">
+        <f t="shared" si="7"/>
         <v>1159.0283359689881</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q29" s="70"/>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="3">
         <v>22</v>
       </c>
@@ -13928,7 +14688,7 @@
         <v>25.065714285714499</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>250.657142857145</v>
       </c>
       <c r="J30" s="59">
@@ -13939,12 +14699,29 @@
         <f t="shared" si="2"/>
         <v>-31.561864610175689</v>
       </c>
-      <c r="L30" s="70">
+      <c r="L30" s="15">
         <f t="shared" si="3"/>
+        <v>31.561864610175689</v>
+      </c>
+      <c r="M30" s="15">
+        <f t="shared" si="4"/>
+        <v>0.12591647798428585</v>
+      </c>
+      <c r="N30" s="77">
+        <f t="shared" si="5"/>
+        <v>-1.2591647798428585</v>
+      </c>
+      <c r="O30" s="15">
+        <f t="shared" si="6"/>
+        <v>1.5854959427967141</v>
+      </c>
+      <c r="P30" s="70">
+        <f t="shared" si="7"/>
         <v>996.15129767106066</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q30" s="70"/>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="3">
         <v>23</v>
       </c>
@@ -13971,7 +14748,7 @@
         <v>29.76519371727748</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>297.65193717277481</v>
       </c>
       <c r="J31" s="59">
@@ -13982,12 +14759,29 @@
         <f t="shared" si="2"/>
         <v>17.032498362829472</v>
       </c>
-      <c r="L31" s="70">
+      <c r="L31" s="15">
         <f t="shared" si="3"/>
+        <v>17.032498362829472</v>
+      </c>
+      <c r="M31" s="15">
+        <f t="shared" si="4"/>
+        <v>5.722287086256321E-2</v>
+      </c>
+      <c r="N31" s="77">
+        <f t="shared" si="5"/>
+        <v>0.57222870862563213</v>
+      </c>
+      <c r="O31" s="15">
+        <f t="shared" si="6"/>
+        <v>0.32744569497535858</v>
+      </c>
+      <c r="P31" s="70">
+        <f t="shared" si="7"/>
         <v>290.10600047978863</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q31" s="70"/>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="3">
         <v>24</v>
       </c>
@@ -14014,7 +14808,7 @@
         <v>33.404543630892626</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>334.04543630892624</v>
       </c>
       <c r="J32" s="59">
@@ -14025,12 +14819,29 @@
         <f t="shared" si="2"/>
         <v>18.132074250281676</v>
       </c>
-      <c r="L32" s="70">
+      <c r="L32" s="15">
         <f t="shared" si="3"/>
+        <v>18.132074250281676</v>
+      </c>
+      <c r="M32" s="15">
+        <f t="shared" si="4"/>
+        <v>5.4280263339724473E-2</v>
+      </c>
+      <c r="N32" s="77">
+        <f t="shared" si="5"/>
+        <v>0.54280263339724466</v>
+      </c>
+      <c r="O32" s="15">
+        <f t="shared" si="6"/>
+        <v>0.2946346988229836</v>
+      </c>
+      <c r="P32" s="70">
+        <f t="shared" si="7"/>
         <v>328.77211661772782</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q32" s="70"/>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>25</v>
       </c>
@@ -14057,7 +14868,7 @@
         <v>32.796229838709721</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>327.96229838709723</v>
       </c>
       <c r="J33" s="59">
@@ -14068,12 +14879,29 @@
         <f t="shared" si="2"/>
         <v>-5.4801766531035128</v>
       </c>
-      <c r="L33" s="70">
+      <c r="L33" s="15">
         <f t="shared" si="3"/>
+        <v>5.4801766531035128</v>
+      </c>
+      <c r="M33" s="15">
+        <f t="shared" si="4"/>
+        <v>1.6709776337264243E-2</v>
+      </c>
+      <c r="N33" s="77">
+        <f t="shared" si="5"/>
+        <v>-0.16709776337264245</v>
+      </c>
+      <c r="O33" s="15">
+        <f t="shared" si="6"/>
+        <v>2.792166252413961E-2</v>
+      </c>
+      <c r="P33" s="70">
+        <f t="shared" si="7"/>
         <v>30.032336149220818</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q33" s="70"/>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>26</v>
       </c>
@@ -14111,12 +14939,29 @@
         <f t="shared" si="2"/>
         <v>-7.5182824234259442</v>
       </c>
-      <c r="L34" s="70">
+      <c r="L34" s="15">
         <f t="shared" si="3"/>
+        <v>7.5182824234259442</v>
+      </c>
+      <c r="M34" s="15">
+        <f t="shared" si="4"/>
+        <v>2.3761962049667757E-2</v>
+      </c>
+      <c r="N34" s="77">
+        <f t="shared" si="5"/>
+        <v>-0.23761962049667756</v>
+      </c>
+      <c r="O34" s="15">
+        <f t="shared" si="6"/>
+        <v>5.6463084044985068E-2</v>
+      </c>
+      <c r="P34" s="70">
+        <f t="shared" si="7"/>
         <v>56.524570598395492</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q34" s="70"/>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>27</v>
       </c>
@@ -14143,7 +14988,7 @@
         <v>33.125084409136065</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>331.25084409136065</v>
       </c>
       <c r="J35" s="59">
@@ -14154,12 +14999,29 @@
         <f t="shared" si="2"/>
         <v>6.4784438369957229</v>
       </c>
-      <c r="L35" s="70">
+      <c r="L35" s="15">
         <f t="shared" si="3"/>
+        <v>6.4784438369957229</v>
+      </c>
+      <c r="M35" s="15">
+        <f t="shared" si="4"/>
+        <v>1.9557516463894462E-2</v>
+      </c>
+      <c r="N35" s="77">
+        <f t="shared" si="5"/>
+        <v>0.19557516463894462</v>
+      </c>
+      <c r="O35" s="15">
+        <f t="shared" si="6"/>
+        <v>3.8249645023550292E-2</v>
+      </c>
+      <c r="P35" s="70">
+        <f t="shared" si="7"/>
         <v>41.970234549107865</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q35" s="70"/>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>28</v>
       </c>
@@ -14197,12 +15059,29 @@
         <f t="shared" si="2"/>
         <v>-17.010870658337751</v>
       </c>
-      <c r="L36" s="70">
+      <c r="L36" s="15">
         <f t="shared" si="3"/>
+        <v>17.010870658337751</v>
+      </c>
+      <c r="M36" s="15">
+        <f t="shared" si="4"/>
+        <v>5.442849753819827E-2</v>
+      </c>
+      <c r="N36" s="77">
+        <f t="shared" si="5"/>
+        <v>-0.54428497538198273</v>
+      </c>
+      <c r="O36" s="15">
+        <f t="shared" si="6"/>
+        <v>0.29624613442656555</v>
+      </c>
+      <c r="P36" s="70">
+        <f t="shared" si="7"/>
         <v>289.36972055469624</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q36" s="70"/>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>29</v>
       </c>
@@ -14240,12 +15119,29 @@
         <f t="shared" si="2"/>
         <v>183.18075690857341</v>
       </c>
-      <c r="L37" s="70">
+      <c r="L37" s="15">
         <f t="shared" si="3"/>
+        <v>183.18075690857341</v>
+      </c>
+      <c r="M37" s="15">
+        <f t="shared" si="4"/>
+        <v>0.37084984000883747</v>
+      </c>
+      <c r="N37" s="77">
+        <f t="shared" si="5"/>
+        <v>3.7084984000883749</v>
+      </c>
+      <c r="O37" s="15">
+        <f t="shared" si="6"/>
+        <v>13.752960383458037</v>
+      </c>
+      <c r="P37" s="70">
+        <f t="shared" si="7"/>
         <v>33555.189701597868</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q37" s="70"/>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>30</v>
       </c>
@@ -14272,7 +15168,7 @@
         <v>53.245215264187699</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" ref="I38:I42" si="5">H38*10</f>
+        <f t="shared" ref="I38:I42" si="9">H38*10</f>
         <v>532.45215264187698</v>
       </c>
       <c r="J38" s="59">
@@ -14283,12 +15179,29 @@
         <f t="shared" si="2"/>
         <v>4.9171422351890897</v>
       </c>
-      <c r="L38" s="70">
+      <c r="L38" s="15">
         <f t="shared" si="3"/>
+        <v>4.9171422351890897</v>
+      </c>
+      <c r="M38" s="15">
+        <f t="shared" si="4"/>
+        <v>9.2348997197055568E-3</v>
+      </c>
+      <c r="N38" s="77">
+        <f t="shared" si="5"/>
+        <v>9.2348997197055555E-2</v>
+      </c>
+      <c r="O38" s="15">
+        <f t="shared" si="6"/>
+        <v>8.5283372833017748E-3</v>
+      </c>
+      <c r="P38" s="70">
+        <f t="shared" si="7"/>
         <v>24.178287761080355</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q38" s="70"/>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>31</v>
       </c>
@@ -14315,7 +15228,7 @@
         <v>38.059320175438501</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>380.59320175438501</v>
       </c>
       <c r="J39" s="59">
@@ -14326,12 +15239,29 @@
         <f t="shared" si="2"/>
         <v>-86.399873514787089</v>
       </c>
-      <c r="L39" s="70">
+      <c r="L39" s="15">
         <f t="shared" si="3"/>
+        <v>86.399873514787089</v>
+      </c>
+      <c r="M39" s="15">
+        <f t="shared" si="4"/>
+        <v>0.22701370680431926</v>
+      </c>
+      <c r="N39" s="77">
+        <f t="shared" si="5"/>
+        <v>-2.2701370680431929</v>
+      </c>
+      <c r="O39" s="15">
+        <f t="shared" si="6"/>
+        <v>5.153522307703744</v>
+      </c>
+      <c r="P39" s="70">
+        <f t="shared" si="7"/>
         <v>7464.9381433712078</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q39" s="70"/>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>32</v>
       </c>
@@ -14358,7 +15288,7 @@
         <v>31.054798076922918</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>310.54798076922918</v>
       </c>
       <c r="J40" s="59">
@@ -14369,12 +15299,29 @@
         <f t="shared" si="2"/>
         <v>-91.86424523008975</v>
       </c>
-      <c r="L40" s="70">
+      <c r="L40" s="15">
         <f t="shared" si="3"/>
+        <v>91.86424523008975</v>
+      </c>
+      <c r="M40" s="15">
+        <f t="shared" si="4"/>
+        <v>0.29581337158445364</v>
+      </c>
+      <c r="N40" s="77">
+        <f t="shared" si="5"/>
+        <v>-2.9581337158445362</v>
+      </c>
+      <c r="O40" s="15">
+        <f t="shared" si="6"/>
+        <v>8.7505550808162038</v>
+      </c>
+      <c r="P40" s="70">
+        <f t="shared" si="7"/>
         <v>8439.039551694068</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q40" s="70"/>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>33</v>
       </c>
@@ -14401,7 +15348,7 @@
         <v>36.095828677840181</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>360.95828677840183</v>
       </c>
       <c r="J41" s="59">
@@ -14412,12 +15359,29 @@
         <f t="shared" si="2"/>
         <v>-1.9098519569939185</v>
       </c>
-      <c r="L41" s="70">
+      <c r="L41" s="15">
         <f t="shared" si="3"/>
+        <v>1.9098519569939185</v>
+      </c>
+      <c r="M41" s="15">
+        <f t="shared" si="4"/>
+        <v>5.2910600115032343E-3</v>
+      </c>
+      <c r="N41" s="77">
+        <f t="shared" si="5"/>
+        <v>-5.2910600115032347E-2</v>
+      </c>
+      <c r="O41" s="15">
+        <f t="shared" si="6"/>
+        <v>2.7995316045328609E-3</v>
+      </c>
+      <c r="P41" s="70">
+        <f t="shared" si="7"/>
         <v>3.6475344976335005</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q41" s="70"/>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>34</v>
       </c>
@@ -14444,7 +15408,7 @@
         <v>30.813527168731987</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>308.13527168731986</v>
       </c>
       <c r="J42" s="59">
@@ -14455,18 +15419,35 @@
         <f t="shared" si="2"/>
         <v>-40.05481156649364</v>
       </c>
-      <c r="L42" s="70">
+      <c r="L42" s="15">
         <f t="shared" si="3"/>
+        <v>40.05481156649364</v>
+      </c>
+      <c r="M42" s="15">
+        <f t="shared" si="4"/>
+        <v>0.12999099826241003</v>
+      </c>
+      <c r="N42" s="77">
+        <f t="shared" si="5"/>
+        <v>-1.2999099826241003</v>
+      </c>
+      <c r="O42" s="15">
+        <f t="shared" si="6"/>
+        <v>1.6897659629257886</v>
+      </c>
+      <c r="P42" s="70">
+        <f t="shared" si="7"/>
         <v>1604.3879296273128</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q42" s="70"/>
+    </row>
+    <row r="47" spans="1:17">
       <c r="F47">
         <f>F37/H37</f>
         <v>6.2915015999116255</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="61">
         <v>31</v>
       </c>
@@ -14480,7 +15461,7 @@
         <v>0.33106729248544409</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="66">
         <v>32</v>
       </c>
@@ -14494,7 +15475,7 @@
         <v>0.31849575835760946</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="66">
         <v>33</v>
       </c>
@@ -14508,7 +15489,7 @@
         <v>0.35032041595999897</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="66">
         <v>34</v>
       </c>
@@ -14522,7 +15503,7 @@
         <v>0.35548661168479517</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="66">
         <v>3</v>
       </c>
@@ -14533,11 +15514,11 @@
         <v>238.16584287284019</v>
       </c>
       <c r="D76" s="63">
-        <f t="shared" ref="D76:D102" si="6">C76</f>
+        <f t="shared" ref="D76:D102" si="10">C76</f>
         <v>238.16584287284019</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="66">
         <v>4</v>
       </c>
@@ -14548,11 +15529,11 @@
         <v>237.40945102634791</v>
       </c>
       <c r="D77" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>237.40945102634791</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="66">
         <v>5</v>
       </c>
@@ -14563,11 +15544,11 @@
         <v>236.79995355299607</v>
       </c>
       <c r="D78" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>236.79995355299607</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="66">
         <v>6</v>
       </c>
@@ -14578,11 +15559,11 @@
         <v>253.17171989595386</v>
       </c>
       <c r="D79" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>253.17171989595386</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="66">
         <v>7</v>
       </c>
@@ -14593,11 +15574,11 @@
         <v>258.4910858476195</v>
       </c>
       <c r="D80" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>258.4910858476195</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="66">
         <v>8</v>
       </c>
@@ -14608,11 +15589,11 @@
         <v>256.95703131414524</v>
       </c>
       <c r="D81" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>256.95703131414524</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" s="66">
         <v>9</v>
       </c>
@@ -14623,11 +15604,11 @@
         <v>255.96326430513409</v>
       </c>
       <c r="D82" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>255.96326430513409</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" s="66">
         <v>10</v>
       </c>
@@ -14638,11 +15619,11 @@
         <v>255.06227151928107</v>
       </c>
       <c r="D83" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>255.06227151928107</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="66">
         <v>11</v>
       </c>
@@ -14653,11 +15634,11 @@
         <v>313.28775419391866</v>
       </c>
       <c r="D84" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>313.28775419391866</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" s="66">
         <v>12</v>
       </c>
@@ -14668,11 +15649,11 @@
         <v>304.71027839408225</v>
       </c>
       <c r="D85" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>304.71027839408225</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" s="66">
         <v>13</v>
       </c>
@@ -14683,11 +15664,11 @@
         <v>298.60294113228179</v>
       </c>
       <c r="D86" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>298.60294113228179</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" s="66">
         <v>14</v>
       </c>
@@ -14698,11 +15679,11 @@
         <v>304.42604753804994</v>
       </c>
       <c r="D87" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>304.42604753804994</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" s="66">
         <v>15</v>
       </c>
@@ -14713,11 +15694,11 @@
         <v>346.04091061548712</v>
       </c>
       <c r="D88" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>346.04091061548712</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" s="66">
         <v>16</v>
       </c>
@@ -14728,11 +15709,11 @@
         <v>318.23194252131589</v>
       </c>
       <c r="D89" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>318.23194252131589</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" s="66">
         <v>17</v>
       </c>
@@ -14743,11 +15724,11 @@
         <v>301.04817954499805</v>
       </c>
       <c r="D90" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>301.04817954499805</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" s="66">
         <v>18</v>
       </c>
@@ -14758,11 +15739,11 @@
         <v>299.81307431113419</v>
       </c>
       <c r="D91" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>299.81307431113419</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" s="66">
         <v>19</v>
       </c>
@@ -14773,11 +15754,11 @@
         <v>294.35807159623607</v>
       </c>
       <c r="D92" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>294.35807159623607</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" s="66">
         <v>20</v>
       </c>
@@ -14788,11 +15769,11 @@
         <v>290.35050233664248</v>
       </c>
       <c r="D93" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>290.35050233664248</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" s="66">
         <v>21</v>
       </c>
@@ -14803,11 +15784,11 @@
         <v>286.89470043038739</v>
       </c>
       <c r="D94" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>286.89470043038739</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" s="66">
         <v>22</v>
       </c>
@@ -14818,11 +15799,11 @@
         <v>284.1226138960817</v>
       </c>
       <c r="D95" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>284.1226138960817</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" s="66">
         <v>23</v>
       </c>
@@ -14833,11 +15814,11 @@
         <v>282.46044652281853</v>
       </c>
       <c r="D96" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>282.46044652281853</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" s="66">
         <v>24</v>
       </c>
@@ -14848,11 +15829,11 @@
         <v>310.29073534013594</v>
       </c>
       <c r="D97" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>310.29073534013594</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" s="67">
         <v>25</v>
       </c>
@@ -14863,11 +15844,11 @@
         <v>325.85015166007298</v>
       </c>
       <c r="D98" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>325.85015166007298</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" s="67">
         <v>26</v>
       </c>
@@ -14878,11 +15859,11 @@
         <v>321.52969929239731</v>
       </c>
       <c r="D99" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>321.52969929239731</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" s="67">
         <v>27</v>
       </c>
@@ -14893,11 +15874,11 @@
         <v>324.00184876288483</v>
       </c>
       <c r="D100" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>324.00184876288483</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" s="67">
         <v>28</v>
       </c>
@@ -14908,11 +15889,11 @@
         <v>329.37653720486117</v>
       </c>
       <c r="D101" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>329.37653720486117</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" s="67">
         <v>29</v>
       </c>
@@ -14923,7 +15904,7 @@
         <v>309.82784150870629</v>
       </c>
       <c r="D102" s="63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>309.82784150870629</v>
       </c>
     </row>
@@ -14931,5 +15912,901 @@
   <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640E5940-F32C-4604-A912-34FB0D39197D}">
+  <dimension ref="A1:N36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" s="79" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="K1" s="79" t="s">
+        <v>301</v>
+      </c>
+      <c r="L1" s="79" t="s">
+        <v>302</v>
+      </c>
+      <c r="M1" s="79" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="55">
+        <v>0</v>
+      </c>
+      <c r="B2" s="56">
+        <v>20.8</v>
+      </c>
+      <c r="C2" s="56">
+        <v>22.2</v>
+      </c>
+      <c r="D2" s="49">
+        <v>96.9</v>
+      </c>
+      <c r="E2" s="53">
+        <v>0.67213114754098358</v>
+      </c>
+      <c r="F2" s="56">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>23.833175487465301</v>
+      </c>
+      <c r="H2">
+        <f>CORREL(A2:A36,$G$2:$G$36)</f>
+        <v>-0.45895136281211252</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:N2" si="0">CORREL(B2:B36,$G$2:$G$36)</f>
+        <v>0.10907785188808312</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>-0.56670741304065431</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0.25877511793014885</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>0.21380312969753451</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0.5300214681238139</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="55">
+        <v>8.7833333333255723</v>
+      </c>
+      <c r="B3" s="56">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C3" s="56">
+        <v>28.2</v>
+      </c>
+      <c r="D3" s="49">
+        <v>88.5</v>
+      </c>
+      <c r="E3" s="53">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F3" s="56">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>23.839117647058668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="55">
+        <v>7.1166666666395031</v>
+      </c>
+      <c r="B4" s="56">
+        <v>20.3</v>
+      </c>
+      <c r="C4" s="56">
+        <v>27.2</v>
+      </c>
+      <c r="D4" s="49">
+        <v>86.2</v>
+      </c>
+      <c r="E4" s="53">
+        <v>0.78899082568807344</v>
+      </c>
+      <c r="F4" s="56">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>23.929065573770334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="55">
+        <v>8.8000000000465661</v>
+      </c>
+      <c r="B5" s="56">
+        <v>19.5</v>
+      </c>
+      <c r="C5" s="56">
+        <v>28.8</v>
+      </c>
+      <c r="D5" s="49">
+        <v>82.6</v>
+      </c>
+      <c r="E5" s="53">
+        <v>1.2695652173913043</v>
+      </c>
+      <c r="F5" s="56">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>23.482235772357964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="55">
+        <v>7.9333333333488554</v>
+      </c>
+      <c r="B6" s="56">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C6" s="56">
+        <v>28.4</v>
+      </c>
+      <c r="D6" s="49">
+        <v>87.6</v>
+      </c>
+      <c r="E6" s="53">
+        <v>1.0090090090090089</v>
+      </c>
+      <c r="F6" s="56">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>23.050303030303041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="55">
+        <v>6.1333333334187046</v>
+      </c>
+      <c r="B7" s="56">
+        <v>20</v>
+      </c>
+      <c r="C7" s="56">
+        <v>28.2</v>
+      </c>
+      <c r="D7" s="49">
+        <v>89.6</v>
+      </c>
+      <c r="E7" s="53">
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="F7" s="56">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>22.654267015706743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="55">
+        <v>7.6166666665230878</v>
+      </c>
+      <c r="B8" s="56">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C8" s="56">
+        <v>31.6</v>
+      </c>
+      <c r="D8" s="49">
+        <v>80.8</v>
+      </c>
+      <c r="E8" s="53">
+        <v>1.5126582278481013</v>
+      </c>
+      <c r="F8" s="56">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>27.313671444322264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="55">
+        <v>8.433333333407063</v>
+      </c>
+      <c r="B9" s="56">
+        <v>14.6</v>
+      </c>
+      <c r="C9" s="56">
+        <v>26.8</v>
+      </c>
+      <c r="D9" s="49">
+        <v>60.5</v>
+      </c>
+      <c r="E9" s="53">
+        <v>1.9684210526315788</v>
+      </c>
+      <c r="F9" s="56">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>28.196189710610948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="55">
+        <v>8.1000000000349246</v>
+      </c>
+      <c r="B10" s="56">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C10" s="56">
+        <v>26.6</v>
+      </c>
+      <c r="D10" s="49">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="E10" s="53">
+        <v>1.9243697478991597</v>
+      </c>
+      <c r="F10" s="56">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>26.799947575360278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="55">
+        <v>8.433333333407063</v>
+      </c>
+      <c r="B11" s="56">
+        <v>14.5</v>
+      </c>
+      <c r="C11" s="56">
+        <v>26.7</v>
+      </c>
+      <c r="D11" s="49">
+        <v>71.3</v>
+      </c>
+      <c r="E11" s="53">
+        <v>0.97841726618705038</v>
+      </c>
+      <c r="F11" s="56">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>25.104677419354772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="55">
+        <v>0.29999999993015081</v>
+      </c>
+      <c r="B12" s="56">
+        <v>21.5</v>
+      </c>
+      <c r="C12" s="56">
+        <v>25.1</v>
+      </c>
+      <c r="D12" s="49">
+        <v>88.8</v>
+      </c>
+      <c r="E12" s="53">
+        <v>0.44525547445255476</v>
+      </c>
+      <c r="F12" s="56">
+        <v>89</v>
+      </c>
+      <c r="G12">
+        <v>27.897916181606572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="55">
+        <v>7.4166666669188999</v>
+      </c>
+      <c r="B13" s="56">
+        <v>20.3</v>
+      </c>
+      <c r="C13" s="56">
+        <v>27.2</v>
+      </c>
+      <c r="D13" s="49">
+        <v>89.8</v>
+      </c>
+      <c r="E13" s="53">
+        <v>1.5209580838323353</v>
+      </c>
+      <c r="F13" s="56">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>32.029561830574458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="55">
+        <v>9.2333333333954215</v>
+      </c>
+      <c r="B14" s="56">
+        <v>18.2</v>
+      </c>
+      <c r="C14" s="56">
+        <v>25.2</v>
+      </c>
+      <c r="D14" s="49">
+        <v>62.3</v>
+      </c>
+      <c r="E14" s="53">
+        <v>3.7055555555555557</v>
+      </c>
+      <c r="F14" s="56">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>30.046079335793408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="55">
+        <v>0.31666666665114462</v>
+      </c>
+      <c r="B15" s="56">
+        <v>18</v>
+      </c>
+      <c r="C15" s="56">
+        <v>21.6</v>
+      </c>
+      <c r="D15" s="49">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="E15" s="53">
+        <v>1.4634146341463414</v>
+      </c>
+      <c r="F15" s="56">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>28.78559615384648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="55">
+        <v>0.66666666674427688</v>
+      </c>
+      <c r="B16" s="56">
+        <v>18.3</v>
+      </c>
+      <c r="C16" s="56">
+        <v>22.8</v>
+      </c>
+      <c r="D16" s="49">
+        <v>90.2</v>
+      </c>
+      <c r="E16" s="53">
+        <v>2.5337423312883436</v>
+      </c>
+      <c r="F16" s="56">
+        <v>87</v>
+      </c>
+      <c r="G16">
+        <v>31.642643442622873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="55">
+        <v>6.6000000000349246</v>
+      </c>
+      <c r="B17" s="56">
+        <v>18.8</v>
+      </c>
+      <c r="C17" s="56">
+        <v>24.6</v>
+      </c>
+      <c r="D17" s="49">
+        <v>97.4</v>
+      </c>
+      <c r="E17" s="53">
+        <v>0.27329192546583853</v>
+      </c>
+      <c r="F17" s="56">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>32.228456104944506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="55">
+        <v>8.25</v>
+      </c>
+      <c r="B18" s="56">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C18" s="56">
+        <v>27.2</v>
+      </c>
+      <c r="D18" s="49">
+        <v>89.9</v>
+      </c>
+      <c r="E18" s="53">
+        <v>1.0414201183431953</v>
+      </c>
+      <c r="F18" s="56">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>30.433051330798698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="55">
+        <v>8.1000000000349246</v>
+      </c>
+      <c r="B19" s="56">
+        <v>19.8</v>
+      </c>
+      <c r="C19" s="56">
+        <v>27.2</v>
+      </c>
+      <c r="D19" s="49">
+        <v>92.8</v>
+      </c>
+      <c r="E19" s="53">
+        <v>0.83950617283950613</v>
+      </c>
+      <c r="F19" s="56">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>29.758445544554792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="55">
+        <v>8.433333333407063</v>
+      </c>
+      <c r="B20" s="56">
+        <v>20.5</v>
+      </c>
+      <c r="C20" s="56">
+        <v>28.3</v>
+      </c>
+      <c r="D20" s="49">
+        <v>89.4</v>
+      </c>
+      <c r="E20" s="53">
+        <v>0.76984126984126988</v>
+      </c>
+      <c r="F20" s="56">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>28.346896551724452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="55">
+        <v>8.9500000000116415</v>
+      </c>
+      <c r="B21" s="56">
+        <v>20</v>
+      </c>
+      <c r="C21" s="56">
+        <v>29.3</v>
+      </c>
+      <c r="D21" s="49">
+        <v>90.5</v>
+      </c>
+      <c r="E21" s="53">
+        <v>0.72121212121212119</v>
+      </c>
+      <c r="F21" s="56">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>26.394255924170523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="55">
+        <v>7.7499999999417923</v>
+      </c>
+      <c r="B22" s="56">
+        <v>19.5</v>
+      </c>
+      <c r="C22" s="56">
+        <v>28.2</v>
+      </c>
+      <c r="D22" s="49">
+        <v>89.4</v>
+      </c>
+      <c r="E22" s="53">
+        <v>0.70129870129870131</v>
+      </c>
+      <c r="F22" s="56">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>24.990241312741233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="55">
+        <v>3.8166666665347293</v>
+      </c>
+      <c r="B23" s="56">
+        <v>20.3</v>
+      </c>
+      <c r="C23" s="56">
+        <v>24.8</v>
+      </c>
+      <c r="D23" s="49">
+        <v>92.7</v>
+      </c>
+      <c r="E23" s="53">
+        <v>0.26347305389221559</v>
+      </c>
+      <c r="F23" s="56">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>25.10273866923826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="55">
+        <v>0.9833333333954215</v>
+      </c>
+      <c r="B24" s="56">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C24" s="56">
+        <v>24.4</v>
+      </c>
+      <c r="D24" s="49">
+        <v>92.8</v>
+      </c>
+      <c r="E24" s="53">
+        <v>0.33132530120481929</v>
+      </c>
+      <c r="F24" s="56">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>25.065714285714499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="55">
+        <v>0.48333333333721384</v>
+      </c>
+      <c r="B25" s="56">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C25" s="56">
+        <v>19.8</v>
+      </c>
+      <c r="D25" s="49">
+        <v>99.3</v>
+      </c>
+      <c r="E25" s="53">
+        <v>0.59876543209876543</v>
+      </c>
+      <c r="F25" s="56">
+        <v>44</v>
+      </c>
+      <c r="G25">
+        <v>29.76519371727748</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="55">
+        <v>0.16666666668606922</v>
+      </c>
+      <c r="B26" s="56">
+        <v>16.8</v>
+      </c>
+      <c r="C26" s="56">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D26" s="49">
+        <v>101.8</v>
+      </c>
+      <c r="E26" s="53">
+        <v>0.25153374233128833</v>
+      </c>
+      <c r="F26" s="56">
+        <v>53</v>
+      </c>
+      <c r="G26">
+        <v>33.404543630892626</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="55">
+        <v>3.6166666667559184</v>
+      </c>
+      <c r="B27" s="56">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C27" s="56">
+        <v>19.7</v>
+      </c>
+      <c r="D27" s="49">
+        <v>99.9</v>
+      </c>
+      <c r="E27" s="53">
+        <v>0.6875</v>
+      </c>
+      <c r="F27" s="56">
+        <v>27</v>
+      </c>
+      <c r="G27">
+        <v>32.796229838709721</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="55">
+        <v>1.9833333333372138</v>
+      </c>
+      <c r="B28" s="56">
+        <v>16</v>
+      </c>
+      <c r="C28" s="56">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D28" s="49">
+        <v>92.3</v>
+      </c>
+      <c r="E28" s="53">
+        <v>1.2962962962962963</v>
+      </c>
+      <c r="F28" s="56">
+        <v>34</v>
+      </c>
+      <c r="G28">
+        <v>31.639990029910287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="55">
+        <v>2.5999999999185093</v>
+      </c>
+      <c r="B29" s="56">
+        <v>15.5</v>
+      </c>
+      <c r="C29" s="56">
+        <v>17.7</v>
+      </c>
+      <c r="D29" s="49">
+        <v>95.9</v>
+      </c>
+      <c r="E29" s="53">
+        <v>1.524390243902439</v>
+      </c>
+      <c r="F29" s="56">
+        <v>42</v>
+      </c>
+      <c r="G29">
+        <v>33.125084409136065</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="55">
+        <v>1.4833333332790062</v>
+      </c>
+      <c r="B30" s="56">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C30" s="56">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D30" s="49">
+        <v>99.6</v>
+      </c>
+      <c r="E30" s="53">
+        <v>9.6385542168674704E-2</v>
+      </c>
+      <c r="F30" s="56">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>31.253610567514585</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="55">
+        <v>0</v>
+      </c>
+      <c r="B31" s="56">
+        <v>18.2</v>
+      </c>
+      <c r="C31" s="56">
+        <v>21.8</v>
+      </c>
+      <c r="D31" s="49">
+        <v>102.2</v>
+      </c>
+      <c r="E31" s="53">
+        <v>0.9213483146067416</v>
+      </c>
+      <c r="F31" s="56">
+        <f>269</f>
+        <v>269</v>
+      </c>
+      <c r="G31">
+        <v>49.394859359844446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="71">
+        <v>0</v>
+      </c>
+      <c r="B32" s="50">
+        <v>21.7</v>
+      </c>
+      <c r="C32" s="50">
+        <v>17</v>
+      </c>
+      <c r="D32" s="50">
+        <v>100.95690607734801</v>
+      </c>
+      <c r="E32" s="72">
+        <v>1.2840909090909092</v>
+      </c>
+      <c r="F32" s="50">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>53.245215264187699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="71">
+        <v>0</v>
+      </c>
+      <c r="B33" s="73">
+        <v>22.5</v>
+      </c>
+      <c r="C33" s="50">
+        <v>12.5</v>
+      </c>
+      <c r="D33" s="50">
+        <v>65.315204678362619</v>
+      </c>
+      <c r="E33" s="72">
+        <v>1.8846153846153846</v>
+      </c>
+      <c r="F33" s="50">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>38.059320175438501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="71">
+        <v>8.066666666592937</v>
+      </c>
+      <c r="B34" s="50">
+        <v>19</v>
+      </c>
+      <c r="C34" s="50">
+        <v>13.3</v>
+      </c>
+      <c r="D34" s="74">
+        <v>81.390355329949273</v>
+      </c>
+      <c r="E34" s="72">
+        <v>2.5</v>
+      </c>
+      <c r="F34" s="50">
+        <v>36</v>
+      </c>
+      <c r="G34">
+        <v>31.054798076922918</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="71">
+        <v>5.7666666667792015</v>
+      </c>
+      <c r="B35" s="50">
+        <v>22.8</v>
+      </c>
+      <c r="C35" s="50">
+        <v>12.1</v>
+      </c>
+      <c r="D35" s="74">
+        <v>84.65960591133009</v>
+      </c>
+      <c r="E35" s="72">
+        <v>4.5436241610738257</v>
+      </c>
+      <c r="F35" s="50">
+        <v>49</v>
+      </c>
+      <c r="G35">
+        <v>36.095828677840181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="71">
+        <v>8.3999999999650754</v>
+      </c>
+      <c r="B36" s="50">
+        <v>23.6</v>
+      </c>
+      <c r="C36" s="50">
+        <v>13.3</v>
+      </c>
+      <c r="D36" s="74">
+        <v>76.431382978723391</v>
+      </c>
+      <c r="E36" s="72">
+        <v>2.0363636363636362</v>
+      </c>
+      <c r="F36" s="50">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>30.813527168731987</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>